--- a/Lab9_10/Borkowska_Justyna_WCY19KC1S1.xlsx
+++ b/Lab9_10/Borkowska_Justyna_WCY19KC1S1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.aWAT\5S\Podstawy symulacji\lab\lab9-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.aWAT\5S\Podstawy symulacji\lab\lab9-10\Lab9_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F056CE6-AFC2-4333-97DB-D080CA001D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2936DBD0-1DFB-4E51-BC06-18A76F1A690F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>14h</t>
   </si>
@@ -75,7 +75,10 @@
     <t>f</t>
   </si>
   <si>
-    <t>RAZEM</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>alfa</t>
   </si>
   <si>
     <t>1-10</t>
@@ -108,13 +111,19 @@
     <t>Zaobserwowane</t>
   </si>
   <si>
-    <t>Oczekiwany %</t>
-  </si>
-  <si>
     <t>składowe do testu</t>
   </si>
   <si>
     <t>suma</t>
+  </si>
+  <si>
+    <t>p(X)</t>
+  </si>
+  <si>
+    <t>*84</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -203,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -214,8 +223,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,28 +398,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -478,7 +492,7 @@
         </c:txPr>
         <c:crossAx val="759868496"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
+        <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
@@ -1168,15 +1182,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>207308</xdr:colOff>
+      <xdr:colOff>302558</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>20171</xdr:rowOff>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>469087</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>153566</xdr:rowOff>
+      <xdr:colOff>568147</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>77366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1199,8 +1213,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25534283" y="1544171"/>
-          <a:ext cx="871379" cy="323895"/>
+          <a:off x="15856323" y="1658471"/>
+          <a:ext cx="857370" cy="323895"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1218,9 +1232,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>524372</xdr:colOff>
+      <xdr:colOff>530087</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>146279</xdr:rowOff>
+      <xdr:rowOff>148184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1256,15 +1270,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>116541</xdr:colOff>
+      <xdr:colOff>268941</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>93569</xdr:rowOff>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>416426</xdr:colOff>
+      <xdr:colOff>568826</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>65043</xdr:rowOff>
+      <xdr:rowOff>150768</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1287,8 +1301,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25443516" y="1998569"/>
-          <a:ext cx="909485" cy="352474"/>
+          <a:off x="15822706" y="2084294"/>
+          <a:ext cx="905001" cy="352474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1306,7 +1320,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>538164</xdr:colOff>
+      <xdr:colOff>536259</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>112663</xdr:rowOff>
     </xdr:to>
@@ -1344,15 +1358,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>430529</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>178397</xdr:rowOff>
+      <xdr:colOff>268604</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>73622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>131095</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>117481</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>574960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12706</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1375,8 +1389,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25147904" y="2464397"/>
-          <a:ext cx="1529366" cy="320084"/>
+          <a:off x="17637722" y="2550122"/>
+          <a:ext cx="1520401" cy="320084"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1388,15 +1402,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>346262</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>87966</xdr:rowOff>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>608040</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>30861</xdr:rowOff>
+      <xdr:colOff>491835</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>34671</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1419,8 +1433,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20072537" y="1611966"/>
-          <a:ext cx="871378" cy="323895"/>
+          <a:off x="18187147" y="1411941"/>
+          <a:ext cx="866896" cy="323895"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1432,15 +1446,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>262218</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>118222</xdr:rowOff>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>562102</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>89696</xdr:rowOff>
+      <xdr:colOff>529717</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>72551</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1463,8 +1477,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19988493" y="2023222"/>
-          <a:ext cx="909484" cy="352474"/>
+          <a:off x="18198353" y="1804147"/>
+          <a:ext cx="905002" cy="352474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1476,15 +1490,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>300878</xdr:colOff>
+      <xdr:colOff>291353</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>160804</xdr:rowOff>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>1443</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>99888</xdr:rowOff>
+      <xdr:colOff>210</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>187518</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1507,8 +1521,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19417553" y="2446804"/>
-          <a:ext cx="1529365" cy="320084"/>
+          <a:off x="17660471" y="2342029"/>
+          <a:ext cx="1520401" cy="320084"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1565,9 +1579,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>526957</xdr:colOff>
+      <xdr:colOff>528862</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>146280</xdr:rowOff>
+      <xdr:rowOff>148185</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1866,21 +1880,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO100"/>
+  <dimension ref="A1:AO130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10:AD12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.5703125" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1893,25 +1909,90 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>3</v>
+      </c>
+      <c r="R2" s="5">
+        <v>4</v>
+      </c>
+      <c r="S2" s="5">
+        <v>5</v>
+      </c>
+      <c r="T2" s="5">
+        <v>6</v>
+      </c>
+    </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>13</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="5">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>9</v>
+      </c>
+      <c r="Q4">
+        <v>9</v>
+      </c>
+      <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>9</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C5" s="5">
@@ -1932,9 +2013,30 @@
       <c r="H5" s="5">
         <v>6</v>
       </c>
+      <c r="N5" s="5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>15</v>
+      </c>
+      <c r="P5">
+        <v>19</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>20</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5">
@@ -1942,11 +2044,11 @@
       </c>
       <c r="C6">
         <f ca="1">RANDBETWEEN(1,15)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:H7" ca="1" si="0">RANDBETWEEN(1,15)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
@@ -1958,55 +2060,97 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="N6" s="5">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>16</v>
+      </c>
+      <c r="P6">
+        <v>20</v>
+      </c>
+      <c r="Q6">
+        <v>15</v>
+      </c>
+      <c r="R6">
+        <v>19</v>
+      </c>
+      <c r="S6">
+        <v>17</v>
+      </c>
+      <c r="T6">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7">
         <f ca="1">RANDBETWEEN(1,15)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="N7" s="5">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>25</v>
+      </c>
+      <c r="P7">
+        <v>21</v>
+      </c>
+      <c r="Q7">
+        <v>25</v>
+      </c>
+      <c r="R7">
+        <v>15</v>
+      </c>
+      <c r="S7">
+        <v>11</v>
+      </c>
+      <c r="T7">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="5">
         <v>3</v>
       </c>
       <c r="C8">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:H9" ca="1" si="1">RANDBETWEEN(10,20)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
@@ -2014,19 +2158,40 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="N8" s="5">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>22</v>
+      </c>
+      <c r="P8">
+        <v>27</v>
+      </c>
+      <c r="Q8">
+        <v>37</v>
+      </c>
+      <c r="R8">
+        <v>30</v>
+      </c>
+      <c r="S8">
+        <v>24</v>
+      </c>
+      <c r="T8">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -2040,37 +2205,65 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="N9" s="5">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>37</v>
+      </c>
+      <c r="P9">
+        <v>36</v>
+      </c>
+      <c r="Q9">
+        <v>32</v>
+      </c>
+      <c r="R9">
+        <v>31</v>
+      </c>
+      <c r="S9">
+        <v>30</v>
+      </c>
+      <c r="T9">
+        <v>24</v>
+      </c>
+      <c r="AC9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9">
+        <f>SUM(AC20:AC27)</f>
+        <v>2970</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="5">
         <v>5</v>
       </c>
       <c r="C10">
         <f ca="1">RANDBETWEEN(10,25)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <f t="shared" ref="D10:H10" ca="1" si="2">RANDBETWEEN(10,25)</f>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
@@ -2078,73 +2271,115 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="AC10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD10">
-        <f>SUM(AC20:AC27)</f>
-        <v>3060</v>
+        <v>11</v>
+      </c>
+      <c r="N10" s="5">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>29</v>
+      </c>
+      <c r="P10">
+        <v>28</v>
+      </c>
+      <c r="Q10">
+        <v>59</v>
+      </c>
+      <c r="R10">
+        <v>25</v>
+      </c>
+      <c r="S10">
+        <v>32</v>
+      </c>
+      <c r="T10">
+        <v>54</v>
       </c>
       <c r="AL10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AM10">
-        <f>SUM(AN21:AN100)</f>
-        <v>9529</v>
+        <f>SUM(AN21:AN101)</f>
+        <v>13566</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="5">
         <v>6</v>
       </c>
       <c r="C11">
         <f ca="1">RANDBETWEEN(15,40)</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <f t="shared" ref="D11:H12" ca="1" si="3">RANDBETWEEN(15,40)</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="N11" s="5">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>54</v>
+      </c>
+      <c r="P11">
+        <v>73</v>
+      </c>
+      <c r="Q11">
+        <v>72</v>
+      </c>
+      <c r="R11">
+        <v>46</v>
+      </c>
+      <c r="S11">
+        <v>64</v>
+      </c>
+      <c r="T11">
+        <v>75</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD11">
+        <f>SUM(AD20:AD27)</f>
+        <v>138100</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="5">
         <v>7</v>
       </c>
       <c r="C12">
         <f ca="1">RANDBETWEEN(15,40)</f>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="3"/>
@@ -2152,250 +2387,351 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="AC12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD12">
-        <f>SUM(AD20:AD27)</f>
-        <v>150000</v>
+        <v>19</v>
+      </c>
+      <c r="N12" s="5">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>52</v>
+      </c>
+      <c r="P12">
+        <v>73</v>
+      </c>
+      <c r="Q12">
+        <v>47</v>
+      </c>
+      <c r="R12">
+        <v>53</v>
+      </c>
+      <c r="S12">
+        <v>36</v>
+      </c>
+      <c r="T12">
+        <v>56</v>
       </c>
       <c r="AL12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AM12">
-        <f>SUM(AO21:AO100)</f>
-        <v>113969</v>
+        <f>SUM(AO21:AO101)</f>
+        <v>96126</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="5">
         <v>8</v>
       </c>
       <c r="C13">
         <f ca="1">RANDBETWEEN(20,60)</f>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:H13" ca="1" si="4">RANDBETWEEN(20,60)</f>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>56</v>
+      </c>
+      <c r="N13" s="5">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>42</v>
+      </c>
+      <c r="P13">
+        <v>43</v>
+      </c>
+      <c r="Q13">
+        <v>47</v>
+      </c>
+      <c r="R13">
+        <v>58</v>
+      </c>
+      <c r="S13">
+        <v>45</v>
+      </c>
+      <c r="T13">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="5">
         <v>9</v>
       </c>
       <c r="C14">
         <f ca="1">RANDBETWEEN(40,80)</f>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <f t="shared" ref="D14:H16" ca="1" si="5">RANDBETWEEN(40,80)</f>
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="N14" s="5">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>67</v>
+      </c>
+      <c r="P14">
+        <v>41</v>
+      </c>
+      <c r="Q14">
+        <v>69</v>
+      </c>
+      <c r="R14">
+        <v>70</v>
+      </c>
+      <c r="S14">
+        <v>45</v>
+      </c>
+      <c r="T14">
+        <v>37</v>
       </c>
       <c r="AC14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AD14">
-        <f>AD12-84*36.43*36.43</f>
-        <v>38519.828399999999</v>
+        <f>AD11-84*36.43*36.43</f>
+        <v>26619.828399999999</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="5">
         <v>10</v>
       </c>
       <c r="C15">
         <f ca="1">RANDBETWEEN(40,80)</f>
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="N15" s="5">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>39</v>
+      </c>
+      <c r="P15">
+        <v>34</v>
+      </c>
+      <c r="Q15">
+        <v>32</v>
+      </c>
+      <c r="R15">
+        <v>22</v>
+      </c>
+      <c r="S15">
+        <v>26</v>
+      </c>
+      <c r="T15">
+        <v>32</v>
       </c>
       <c r="AL15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AM15">
         <f>AM12-84*32.13*32.13</f>
-        <v>27252.700399999987</v>
+        <v>9409.700399999987</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="5">
         <v>11</v>
       </c>
       <c r="C16">
         <f ca="1">RANDBETWEEN(40,80)</f>
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="N16" s="5">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>17</v>
+      </c>
+      <c r="P16">
+        <v>12</v>
+      </c>
+      <c r="Q16">
+        <v>13</v>
+      </c>
+      <c r="R16">
+        <v>20</v>
+      </c>
+      <c r="S16">
+        <v>16</v>
+      </c>
+      <c r="T16">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="5">
         <v>12</v>
       </c>
       <c r="C17">
         <f ca="1">RANDBETWEEN(35,70)</f>
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:H17" ca="1" si="6">RANDBETWEEN(35,70)</f>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="6"/>
-        <v>53</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="5">
         <v>13</v>
       </c>
       <c r="C18">
         <f ca="1">RANDBETWEEN(20,40)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:H18" ca="1" si="7">RANDBETWEEN(20,40)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="7"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="5">
         <v>14</v>
       </c>
       <c r="C19">
         <f ca="1">RANDBETWEEN(10, 20)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <f t="shared" ref="D19:H19" ca="1" si="8">RANDBETWEEN(10, 20)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="8"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="8"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K19" s="12"/>
       <c r="Z19" t="s">
         <v>10</v>
       </c>
@@ -2407,6 +2743,7 @@
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="K20" s="12"/>
       <c r="Z20">
         <f>AA20*AA20</f>
         <v>100</v>
@@ -2415,15 +2752,15 @@
         <v>10</v>
       </c>
       <c r="AB20" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC20">
         <f>AB20*AA20</f>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD20">
         <f>AB20*Z20</f>
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="AK20" t="s">
         <v>10</v>
@@ -2436,6 +2773,7 @@
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="K21" s="12"/>
       <c r="Z21">
         <f t="shared" ref="Z21:Z27" si="9">AA21*AA21</f>
         <v>400</v>
@@ -2444,15 +2782,15 @@
         <v>20</v>
       </c>
       <c r="AB21" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AC21">
         <f t="shared" ref="AC21:AC27" si="10">AB21*AA21</f>
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="AD21">
         <f t="shared" ref="AD21:AD27" si="11">AB21*Z21</f>
-        <v>9600</v>
+        <v>8000</v>
       </c>
       <c r="AK21">
         <f>AL21*AL21</f>
@@ -2475,6 +2813,7 @@
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="K22" s="12"/>
       <c r="Z22">
         <f t="shared" si="9"/>
         <v>900</v>
@@ -2483,37 +2822,38 @@
         <v>30</v>
       </c>
       <c r="AB22" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AC22">
         <f t="shared" si="10"/>
-        <v>390</v>
+        <v>480</v>
       </c>
       <c r="AD22">
         <f t="shared" si="11"/>
-        <v>11700</v>
+        <v>14400</v>
       </c>
       <c r="AK22">
-        <f t="shared" ref="AI22:AK85" si="12">AL22*AL22</f>
+        <f t="shared" ref="AI22:AK86" si="12">AL22*AL22</f>
         <v>4</v>
       </c>
       <c r="AL22">
         <v>2</v>
       </c>
       <c r="AM22">
-        <f t="shared" ref="AK22:AM85" si="13">COUNTIF($C$31:$H$44,AL22)</f>
+        <f t="shared" ref="AK22:AM86" si="13">COUNTIF($C$31:$H$44,AL22)</f>
         <v>0</v>
       </c>
       <c r="AN22">
-        <f t="shared" ref="AL22:AN85" si="14">AL22*AM22</f>
+        <f t="shared" ref="AL22:AN86" si="14">AL22*AM22</f>
         <v>0</v>
       </c>
       <c r="AO22">
-        <f t="shared" ref="AM22:AO85" si="15">AK22*AM22</f>
+        <f t="shared" ref="AM22:AO86" si="15">AK22*AM22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="K23" s="12"/>
       <c r="Z23">
         <f t="shared" si="9"/>
         <v>1600</v>
@@ -2522,15 +2862,15 @@
         <v>40</v>
       </c>
       <c r="AB23" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC23">
         <f t="shared" si="10"/>
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="AD23">
         <f t="shared" si="11"/>
-        <v>14400</v>
+        <v>19200</v>
       </c>
       <c r="AK23">
         <f t="shared" si="12"/>
@@ -2553,6 +2893,7 @@
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="K24" s="12"/>
       <c r="Z24">
         <f t="shared" si="9"/>
         <v>2500</v>
@@ -2561,15 +2902,15 @@
         <v>50</v>
       </c>
       <c r="AB24" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC24">
         <f t="shared" si="10"/>
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AD24">
         <f t="shared" si="11"/>
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="AK24">
         <f t="shared" si="12"/>
@@ -2580,15 +2921,15 @@
       </c>
       <c r="AM24">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN24">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AO24">
         <f t="shared" si="15"/>
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
@@ -2600,15 +2941,15 @@
         <v>60</v>
       </c>
       <c r="AB25" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AC25">
         <f t="shared" si="10"/>
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="AD25">
         <f t="shared" si="11"/>
-        <v>18000</v>
+        <v>25200</v>
       </c>
       <c r="AK25">
         <f t="shared" si="12"/>
@@ -2630,7 +2971,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
       <c r="Z26">
         <f t="shared" si="9"/>
         <v>4900</v>
@@ -2639,15 +2982,15 @@
         <v>70</v>
       </c>
       <c r="AB26" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AC26">
         <f t="shared" si="10"/>
-        <v>490</v>
+        <v>350</v>
       </c>
       <c r="AD26">
         <f t="shared" si="11"/>
-        <v>34300</v>
+        <v>24500</v>
       </c>
       <c r="AK26">
         <f t="shared" si="12"/>
@@ -2678,15 +3021,15 @@
         <v>80</v>
       </c>
       <c r="AB27" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC27">
         <f t="shared" si="10"/>
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="AD27">
         <f t="shared" si="11"/>
-        <v>38400</v>
+        <v>25600</v>
       </c>
       <c r="AK27">
         <f t="shared" si="12"/>
@@ -2709,15 +3052,15 @@
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
       <c r="AK28">
         <f t="shared" si="12"/>
         <v>64</v>
@@ -2727,26 +3070,26 @@
       </c>
       <c r="AM28">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN28">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AO28">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
       <c r="AK29">
         <f t="shared" si="12"/>
         <v>81</v>
@@ -2768,7 +3111,7 @@
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="5"/>
@@ -2805,19 +3148,19 @@
       </c>
       <c r="AM30">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN30">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AO30">
         <f t="shared" si="15"/>
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="5">
         <v>1</v>
       </c>
@@ -2831,7 +3174,7 @@
         <v>13</v>
       </c>
       <c r="F31">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G31">
         <v>7</v>
@@ -2866,7 +3209,7 @@
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="5">
         <v>2</v>
       </c>
@@ -2880,7 +3223,7 @@
         <v>9</v>
       </c>
       <c r="F32">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G32">
         <v>9</v>
@@ -2888,11 +3231,11 @@
       <c r="H32">
         <v>3</v>
       </c>
-      <c r="K32" s="8" t="s">
-        <v>14</v>
+      <c r="K32" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="L32" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK32">
         <f t="shared" si="12"/>
@@ -2915,7 +3258,7 @@
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="5">
         <v>3</v>
       </c>
@@ -2929,7 +3272,7 @@
         <v>14</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -2937,11 +3280,11 @@
       <c r="H33">
         <v>11</v>
       </c>
-      <c r="K33" s="8" t="s">
-        <v>15</v>
+      <c r="K33" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="L33" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AK33">
         <f t="shared" si="12"/>
@@ -2964,7 +3307,7 @@
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="5">
         <v>4</v>
       </c>
@@ -2986,11 +3329,11 @@
       <c r="H34">
         <v>20</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="1">
         <v>16</v>
-      </c>
-      <c r="L34" s="1">
-        <v>13</v>
       </c>
       <c r="AK34">
         <f t="shared" si="12"/>
@@ -3001,19 +3344,19 @@
       </c>
       <c r="AM34">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN34">
         <f t="shared" si="14"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AO34">
         <f t="shared" si="15"/>
-        <v>392</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="5">
         <v>5</v>
       </c>
@@ -3035,11 +3378,11 @@
       <c r="H35">
         <v>25</v>
       </c>
-      <c r="K35" s="8" t="s">
-        <v>17</v>
+      <c r="K35" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="L35" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK35">
         <f t="shared" si="12"/>
@@ -3050,33 +3393,33 @@
       </c>
       <c r="AM35">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN35">
         <f t="shared" si="14"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AO35">
         <f t="shared" si="15"/>
-        <v>900</v>
+        <v>675</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="5">
         <v>6</v>
       </c>
       <c r="C36">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E36">
         <v>37</v>
       </c>
       <c r="F36">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G36">
         <v>24</v>
@@ -3084,11 +3427,11 @@
       <c r="H36">
         <v>21</v>
       </c>
-      <c r="K36" s="8" t="s">
-        <v>18</v>
+      <c r="K36" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="L36" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK36">
         <f t="shared" si="12"/>
@@ -3111,7 +3454,7 @@
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="5">
         <v>7</v>
       </c>
@@ -3119,13 +3462,13 @@
         <v>37</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E37">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F37">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G37">
         <v>30</v>
@@ -3133,11 +3476,11 @@
       <c r="H37">
         <v>24</v>
       </c>
-      <c r="K37" s="8" t="s">
-        <v>19</v>
+      <c r="K37" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="L37" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK37">
         <f t="shared" si="12"/>
@@ -3148,19 +3491,19 @@
       </c>
       <c r="AM37">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN37">
         <f t="shared" si="14"/>
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AO37">
         <f t="shared" si="15"/>
-        <v>867</v>
+        <v>578</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="5">
         <v>8</v>
       </c>
@@ -3174,19 +3517,19 @@
         <v>59</v>
       </c>
       <c r="F38">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G38">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>54</v>
       </c>
-      <c r="K38" s="8" t="s">
-        <v>20</v>
+      <c r="K38" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="L38" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK38">
         <f t="shared" si="12"/>
@@ -3197,19 +3540,19 @@
       </c>
       <c r="AM38">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AO38">
         <f t="shared" si="15"/>
-        <v>324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="5">
         <v>9</v>
       </c>
@@ -3231,11 +3574,11 @@
       <c r="H39">
         <v>75</v>
       </c>
-      <c r="K39" s="8" t="s">
-        <v>21</v>
+      <c r="K39" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="L39" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK39">
         <f t="shared" si="12"/>
@@ -3246,19 +3589,19 @@
       </c>
       <c r="AM39">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN39">
         <f t="shared" si="14"/>
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="AO39">
         <f t="shared" si="15"/>
-        <v>1083</v>
+        <v>722</v>
       </c>
     </row>
     <row r="40" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="5">
         <v>10</v>
       </c>
@@ -3272,10 +3615,10 @@
         <v>47</v>
       </c>
       <c r="F40">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="G40">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>56</v>
@@ -3295,19 +3638,19 @@
       </c>
       <c r="AM40">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN40">
         <f t="shared" si="14"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AO40">
         <f t="shared" si="15"/>
-        <v>1200</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="5">
         <v>11</v>
       </c>
@@ -3321,7 +3664,7 @@
         <v>47</v>
       </c>
       <c r="F41">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G41">
         <v>45</v>
@@ -3350,7 +3693,7 @@
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="5">
         <v>12</v>
       </c>
@@ -3358,7 +3701,7 @@
         <v>67</v>
       </c>
       <c r="D42">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E42">
         <v>69</v>
@@ -3367,13 +3710,10 @@
         <v>70</v>
       </c>
       <c r="G42">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H42">
-        <v>43</v>
-      </c>
-      <c r="K42" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="L42">
         <f>SUM(L31:L40)</f>
@@ -3388,19 +3728,19 @@
       </c>
       <c r="AM42">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN42">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AO42">
         <f t="shared" si="15"/>
-        <v>484</v>
+        <v>968</v>
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="5">
         <v>13</v>
       </c>
@@ -3411,7 +3751,7 @@
         <v>34</v>
       </c>
       <c r="E43">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F43">
         <v>22</v>
@@ -3443,7 +3783,7 @@
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="5">
         <v>14</v>
       </c>
@@ -3495,15 +3835,15 @@
       </c>
       <c r="AM45">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN45">
         <f t="shared" si="14"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AO45">
         <f t="shared" si="15"/>
-        <v>1875</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
@@ -3529,6 +3869,22 @@
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47">
+        <v>35.36</v>
+      </c>
+      <c r="L47">
+        <f>1/K47</f>
+        <v>2.828054298642534E-2</v>
+      </c>
+      <c r="M47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
       <c r="AK47">
         <f t="shared" si="12"/>
         <v>729</v>
@@ -3575,137 +3931,180 @@
         <v>8</v>
       </c>
       <c r="D49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AK49">
+      <c r="I49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ49">
         <f t="shared" si="12"/>
         <v>841</v>
       </c>
+      <c r="AK49">
+        <v>29</v>
+      </c>
       <c r="AL49">
-        <v>29</v>
-      </c>
-      <c r="AM49">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AN49">
+      <c r="AM49">
         <f t="shared" si="14"/>
         <v>29</v>
       </c>
-      <c r="AO49">
+      <c r="AN49">
         <f t="shared" si="15"/>
         <v>841</v>
       </c>
     </row>
     <row r="50" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="C50" s="9" t="s">
-        <v>14</v>
+      <c r="C50" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="D50">
-        <v>15</v>
-      </c>
-      <c r="E50">
-        <f>ROUND(D50*$L$42/100,0)</f>
-        <v>13</v>
-      </c>
-      <c r="F50" s="1">
-        <v>11</v>
-      </c>
-      <c r="H50">
-        <f>(POWER(E50-F50,2)/E50)</f>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="AJ50">
+        <f>SUM(N51:N60)</f>
+        <v>20.400809464895648</v>
+      </c>
+      <c r="E50" s="1">
+        <v>12</v>
+      </c>
+      <c r="G50">
+        <f>(POWER(D50-E50,2)/D50)</f>
+        <v>3.4593529137615175</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ref="J50:J81" si="16">(POWER(2.71828182845904,-1*$K$47)*POWER($K$47,I50))/(FACT(I50))</f>
+        <v>4.3989306966685179E-16</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ref="K50:K81" si="17">J50*84</f>
+        <v>3.6951017852015553E-14</v>
+      </c>
+      <c r="M50" t="e">
+        <f>(POWER($L$47,$N$47)*POWER(I50,$N$47-1)*POWER(2.71828182845904,-1*$L$47*I50)/FACT($N$47-1))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="N50" t="e">
+        <f>M50*84</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="51" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C51" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51">
+        <f>SUM(N61:N70)</f>
+        <v>15.37540492375925</v>
+      </c>
+      <c r="E51" s="1">
+        <v>20</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ref="G51:G57" si="18">(POWER(D51-E51,2)/D51)</f>
+        <v>1.390979927048396</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="16"/>
+        <v>1.5554618943419878E-14</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="17"/>
+        <v>1.3065879912472698E-12</v>
+      </c>
+      <c r="M51">
+        <f t="shared" ref="M51:M114" si="19">(POWER($L$47,$N$47)*POWER(I51,$N$47-1)*POWER(2.71828182845904,-1*$L$47*I51)/FACT($N$47-1))</f>
+        <v>2.7491957249063538E-2</v>
+      </c>
+      <c r="N51">
+        <f t="shared" ref="N51:N114" si="20">M51*84</f>
+        <v>2.3093244089213374</v>
+      </c>
+      <c r="P51">
+        <f>SUM(M51:M130)</f>
+        <v>0.88329556012262467</v>
+      </c>
+      <c r="AJ51">
         <f t="shared" si="12"/>
         <v>900</v>
       </c>
-      <c r="AK50">
+      <c r="AK51">
         <v>30</v>
       </c>
-      <c r="AL50">
+      <c r="AL51">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AM50">
+        <v>2</v>
+      </c>
+      <c r="AM51">
         <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="AN50">
+        <v>60</v>
+      </c>
+      <c r="AN51">
         <f t="shared" si="15"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="51" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="C51" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51">
-        <v>30</v>
-      </c>
-      <c r="E51">
-        <f t="shared" ref="E51:E57" si="16">ROUND(D51*$L$42/100,0)</f>
-        <v>25</v>
-      </c>
-      <c r="F51" s="1">
-        <v>24</v>
-      </c>
-      <c r="H51">
-        <f t="shared" ref="H51:H57" si="17">(POWER(E51-F51,2)/E51)</f>
-        <v>0.04</v>
-      </c>
-      <c r="AJ51">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="52" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <f>SUM(N71:N80)</f>
+        <v>11.587926301470873</v>
+      </c>
+      <c r="E52" s="1">
+        <v>16</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="18"/>
+        <v>1.6798859273709392</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="16"/>
+        <v>2.7500566291966348E-13</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="17"/>
+        <v>2.3100475685251731E-11</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="19"/>
+        <v>2.6725360745270162E-2</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="20"/>
+        <v>2.2449303026026937</v>
+      </c>
+      <c r="P52">
+        <f>SUM(N51:N130)</f>
+        <v>74.196827050300541</v>
+      </c>
+      <c r="AJ52">
         <f t="shared" si="12"/>
         <v>961</v>
       </c>
-      <c r="AK51">
+      <c r="AK52">
         <v>31</v>
-      </c>
-      <c r="AL51">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AM51">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AN51">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="C52" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52">
-        <v>15</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="16"/>
-        <v>13</v>
-      </c>
-      <c r="F52" s="1">
-        <v>13</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AJ52">
-        <f t="shared" si="12"/>
-        <v>1024</v>
-      </c>
-      <c r="AK52">
-        <v>32</v>
       </c>
       <c r="AL52">
         <f t="shared" si="13"/>
@@ -3713,189 +4112,269 @@
       </c>
       <c r="AM52">
         <f t="shared" si="14"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AN52">
         <f t="shared" si="15"/>
-        <v>1024</v>
+        <v>961</v>
       </c>
     </row>
     <row r="53" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="C53" s="9" t="s">
-        <v>17</v>
+      <c r="C53" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="D53">
+        <f>SUM(N81:N90)</f>
+        <v>8.7334308679455113</v>
+      </c>
+      <c r="E53" s="1">
         <v>12</v>
       </c>
-      <c r="E53">
+      <c r="G53">
+        <f>(POWER(D53-E53,2)/D53)</f>
+        <v>1.2217963427929881</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="F53" s="1">
-        <v>9</v>
-      </c>
-      <c r="H53">
-        <f>(POWER(E53-F53,2)/E53)</f>
-        <v>0.1</v>
+        <v>3.241400080279767E-12</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="17"/>
+        <v>2.7227760674350043E-10</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="19"/>
+        <v>2.5980140318643808E-2</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="20"/>
+        <v>2.1823317867660799</v>
       </c>
       <c r="AJ53">
         <f t="shared" si="12"/>
-        <v>1089</v>
+        <v>1024</v>
       </c>
       <c r="AK53">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AL53">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM53">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AN53">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="54" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="C54" s="9" t="s">
-        <v>18</v>
+      <c r="C54" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="D54">
-        <v>6</v>
-      </c>
-      <c r="E54">
+        <f>SUM(N91:N100)</f>
+        <v>6.5820935291504279</v>
+      </c>
+      <c r="E54" s="1">
+        <v>8</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="18"/>
+        <v>0.30544366335319839</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="F54" s="1">
-        <v>9</v>
-      </c>
-      <c r="H54">
+        <v>2.8653976709673141E-11</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="17"/>
-        <v>3.2</v>
+        <v>2.4069340436125437E-9</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="19"/>
+        <v>2.5255699910276295E-2</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="20"/>
+        <v>2.1214787924632086</v>
       </c>
       <c r="AJ54">
         <f t="shared" si="12"/>
-        <v>1156</v>
+        <v>1089</v>
       </c>
       <c r="AK54">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL54">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54">
         <f t="shared" si="14"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AN54">
         <f t="shared" si="15"/>
-        <v>1156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="C55" s="9" t="s">
-        <v>19</v>
+      <c r="C55" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D55">
-        <v>10</v>
-      </c>
-      <c r="E55">
+        <f>SUM(N101:N110)</f>
+        <v>4.9607028304874703</v>
+      </c>
+      <c r="E55" s="1">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="18"/>
+        <v>0.83833543102462993</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="F55" s="1">
-        <v>5</v>
-      </c>
-      <c r="H55">
+        <v>2.0264092329080846E-10</v>
+      </c>
+      <c r="K55">
         <f t="shared" si="17"/>
-        <v>1.125</v>
+        <v>1.702183755642791E-8</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="19"/>
+        <v>2.455146008199954E-2</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="20"/>
+        <v>2.0623226468879614</v>
       </c>
       <c r="AJ55">
         <f t="shared" si="12"/>
-        <v>1225</v>
+        <v>1156</v>
       </c>
       <c r="AK55">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AL55">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM55">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AN55">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="56" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="C56" s="9" t="s">
-        <v>20</v>
+      <c r="C56" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D56">
+        <f>SUM(N111:N120)</f>
+        <v>3.7387151160069734</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="18"/>
+        <v>0.42550435356207428</v>
+      </c>
+      <c r="I56">
         <v>6</v>
       </c>
-      <c r="E56">
+      <c r="J56">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="F56" s="1">
-        <v>7</v>
-      </c>
-      <c r="H56">
+        <v>1.1942305079271645E-9</v>
+      </c>
+      <c r="K56">
         <f t="shared" si="17"/>
-        <v>0.8</v>
+        <v>1.0031536266588182E-7</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="19"/>
+        <v>2.3866857552926259E-2</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="20"/>
+        <v>2.0048160344458057</v>
       </c>
       <c r="AJ56">
         <f t="shared" si="12"/>
-        <v>1296</v>
+        <v>1225</v>
       </c>
       <c r="AK56">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AL56">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
         <f t="shared" si="14"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AN56">
         <f t="shared" si="15"/>
-        <v>1296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="C57" s="9" t="s">
-        <v>21</v>
+      <c r="C57" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="D57">
-        <v>6</v>
-      </c>
-      <c r="E57">
+        <f>SUM(N121:N130)</f>
+        <v>2.8177440165843346</v>
+      </c>
+      <c r="E57" s="1">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="18"/>
+        <v>0.49604548961706874</v>
+      </c>
+      <c r="I57">
+        <v>7</v>
+      </c>
+      <c r="J57">
         <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="F57" s="1">
-        <v>6</v>
-      </c>
-      <c r="H57">
+        <v>6.0325701086149343E-9</v>
+      </c>
+      <c r="K57">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>5.0673588912365444E-7</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="19"/>
+        <v>2.3201344748914061E-2</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="20"/>
+        <v>1.9489129589087812</v>
       </c>
       <c r="AJ57">
         <f t="shared" si="12"/>
-        <v>1369</v>
+        <v>1296</v>
       </c>
       <c r="AK57">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AL57">
         <f t="shared" si="13"/>
@@ -3903,468 +4382,893 @@
       </c>
       <c r="AM57">
         <f t="shared" si="14"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AN57">
         <f t="shared" si="15"/>
-        <v>2738</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="58" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="G58" s="5" t="s">
+      <c r="F58" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H58">
-        <f>SUM(H50:H57)</f>
-        <v>5.7726923076923082</v>
+      <c r="G58">
+        <f>SUM(G50:G57)</f>
+        <v>9.8173440485308134</v>
+      </c>
+      <c r="I58">
+        <v>8</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="16"/>
+        <v>2.6663959880078009E-8</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="17"/>
+        <v>2.2397726299265527E-6</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="19"/>
+        <v>2.2554389364592406E-2</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="20"/>
+        <v>1.8945687066257622</v>
+      </c>
+      <c r="AI58">
+        <f t="shared" si="12"/>
+        <v>1369</v>
+      </c>
+      <c r="AJ58">
+        <v>37</v>
       </c>
       <c r="AK58">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AL58">
+        <f t="shared" si="14"/>
+        <v>111</v>
+      </c>
+      <c r="AM58">
+        <f t="shared" si="15"/>
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="59" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>9</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="16"/>
+        <v>1.0475973570661758E-7</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="17"/>
+        <v>8.7998177993558765E-6</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="19"/>
+        <v>2.1925473937602212E-2</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="20"/>
+        <v>1.8417398107585858</v>
+      </c>
+      <c r="AK59">
         <f t="shared" si="12"/>
         <v>1444</v>
       </c>
-      <c r="AL58">
+      <c r="AL59">
         <v>38</v>
       </c>
-      <c r="AM58">
+      <c r="AM59">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C60" s="6"/>
+      <c r="I60">
+        <v>10</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="16"/>
+        <v>3.7043042545859981E-7</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="17"/>
+        <v>3.1116155738522384E-5</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="19"/>
+        <v>2.1314095434707477E-2</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="20"/>
+        <v>1.7903840165154281</v>
+      </c>
+      <c r="AK60">
+        <f t="shared" si="12"/>
+        <v>1521</v>
+      </c>
+      <c r="AL60">
+        <v>39</v>
+      </c>
+      <c r="AM60">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AN60">
+        <f t="shared" si="14"/>
+        <v>39</v>
+      </c>
+      <c r="AO60">
+        <f t="shared" si="15"/>
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="61" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>11</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="16"/>
+        <v>1.1907654403832808E-6</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="17"/>
+        <v>1.0002429699219558E-4</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="19"/>
+        <v>2.0719764849447975E-2</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="20"/>
+        <v>1.7404602473536299</v>
+      </c>
+      <c r="AK61">
+        <f t="shared" si="12"/>
+        <v>1600</v>
+      </c>
+      <c r="AL61">
+        <v>40</v>
+      </c>
+      <c r="AM61">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+      <c r="I62">
+        <v>12</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="16"/>
+        <v>3.5087888309960672E-6</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="17"/>
+        <v>2.9473826180366963E-4</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="19"/>
+        <v>2.0142006811011161E-2</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="20"/>
+        <v>1.6919285721249375</v>
+      </c>
+      <c r="AK62">
+        <f t="shared" si="12"/>
+        <v>1681</v>
+      </c>
+      <c r="AL62">
+        <v>41</v>
+      </c>
+      <c r="AM62">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AN62">
+        <f t="shared" si="14"/>
+        <v>41</v>
+      </c>
+      <c r="AO62">
+        <f t="shared" si="15"/>
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="63" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="E63" s="1"/>
+      <c r="I63">
+        <v>13</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="16"/>
+        <v>9.5439056203093041E-6</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="17"/>
+        <v>8.016880721059815E-4</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="19"/>
+        <v>1.9580359204010411E-2</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="20"/>
+        <v>1.6447501731368745</v>
+      </c>
+      <c r="AK63">
+        <f t="shared" si="12"/>
+        <v>1764</v>
+      </c>
+      <c r="AL63">
+        <v>42</v>
+      </c>
+      <c r="AM63">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <f t="shared" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="AO63">
+        <f t="shared" si="15"/>
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="64" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+      <c r="I64">
+        <v>14</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="16"/>
+        <v>2.4105178766724074E-5</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="17"/>
+        <v>2.0248350164048224E-3</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="19"/>
+        <v>1.9034372798865534E-2</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="20"/>
+        <v>1.5988873151047047</v>
+      </c>
+      <c r="AK64">
+        <f t="shared" si="12"/>
+        <v>1849</v>
+      </c>
+      <c r="AL64">
+        <v>43</v>
+      </c>
+      <c r="AM64">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AN64">
+        <f t="shared" si="14"/>
+        <v>43</v>
+      </c>
+      <c r="AO64">
+        <f t="shared" si="15"/>
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="65" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+      <c r="I65">
+        <v>15</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="16"/>
+        <v>5.6823941412757558E-5</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="17"/>
+        <v>4.7732110786716346E-3</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="19"/>
+        <v>1.8503610892489916E-2</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="20"/>
+        <v>1.554303314969153</v>
+      </c>
+      <c r="AK65">
+        <f t="shared" si="12"/>
+        <v>1936</v>
+      </c>
+      <c r="AL65">
+        <v>44</v>
+      </c>
+      <c r="AM65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO65">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+      <c r="I66">
+        <v>16</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="16"/>
+        <v>1.2558091052219415E-4</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="17"/>
+        <v>1.0548796483864309E-2</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="19"/>
+        <v>1.7987648958996839E-2</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="20"/>
+        <v>1.5109625125557344</v>
+      </c>
+      <c r="AK66">
+        <f t="shared" si="12"/>
+        <v>2025</v>
+      </c>
+      <c r="AL66">
+        <v>45</v>
+      </c>
+      <c r="AM66">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AN58">
+      <c r="AN66">
         <f t="shared" si="14"/>
-        <v>76</v>
-      </c>
-      <c r="AO58">
+        <v>90</v>
+      </c>
+      <c r="AO66">
         <f t="shared" si="15"/>
-        <v>2888</v>
-      </c>
-    </row>
-    <row r="59" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="AI59">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="67" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+      <c r="I67">
+        <v>17</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="16"/>
+        <v>2.6120829388616386E-4</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="17"/>
+        <v>2.1941496686437766E-2</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="19"/>
+        <v>1.7486074310145705E-2</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="20"/>
+        <v>1.4688302420522392</v>
+      </c>
+      <c r="AK67">
         <f t="shared" si="12"/>
-        <v>1521</v>
-      </c>
-      <c r="AJ59">
-        <v>39</v>
-      </c>
-      <c r="AK59">
+        <v>2116</v>
+      </c>
+      <c r="AL67">
+        <v>46</v>
+      </c>
+      <c r="AM67">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AN67">
+        <f t="shared" si="14"/>
+        <v>46</v>
+      </c>
+      <c r="AO67">
+        <f t="shared" si="15"/>
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="68" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>18</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="16"/>
+        <v>5.1312918176748634E-4</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="17"/>
+        <v>4.3102851268468856E-2</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="19"/>
+        <v>1.6998485765256435E-2</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="20"/>
+        <v>1.4278728042815405</v>
+      </c>
+      <c r="AK68">
+        <f t="shared" si="12"/>
+        <v>2209</v>
+      </c>
+      <c r="AL68">
+        <v>47</v>
+      </c>
+      <c r="AM68">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AL59">
+      <c r="AN68">
         <f t="shared" si="14"/>
-        <v>78</v>
-      </c>
-      <c r="AM59">
+        <v>94</v>
+      </c>
+      <c r="AO68">
         <f t="shared" si="15"/>
-        <v>3042</v>
-      </c>
-    </row>
-    <row r="60" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="AK60">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="69" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>19</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="16"/>
+        <v>9.5496041406833239E-4</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="17"/>
+        <v>8.0216674781739924E-2</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="19"/>
+        <v>1.6524493330328183E-2</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="20"/>
+        <v>1.3880574397475673</v>
+      </c>
+      <c r="AK69">
         <f t="shared" si="12"/>
-        <v>1600</v>
-      </c>
-      <c r="AL60">
-        <v>40</v>
-      </c>
-      <c r="AM60">
+        <v>2304</v>
+      </c>
+      <c r="AL69">
+        <v>48</v>
+      </c>
+      <c r="AM69">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AN60">
+      <c r="AN69">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AO60">
+      <c r="AO69">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="AK61">
+    <row r="70" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>20</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="16"/>
+        <v>1.688370012072812E-3</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="17"/>
+        <v>0.1418230810141162</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="19"/>
+        <v>1.6063717886105562E-2</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="20"/>
+        <v>1.3493523024328673</v>
+      </c>
+      <c r="AK70">
         <f t="shared" si="12"/>
-        <v>1681</v>
-      </c>
-      <c r="AL61">
-        <v>41</v>
-      </c>
-      <c r="AM61">
+        <v>2401</v>
+      </c>
+      <c r="AL70">
+        <v>49</v>
+      </c>
+      <c r="AM70">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AN61">
+      <c r="AN70">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AO61">
+      <c r="AO70">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="AK62">
+    <row r="71" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>21</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="16"/>
+        <v>2.8428935060426015E-3</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="17"/>
+        <v>0.23880305450757852</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="19"/>
+        <v>1.5615790884843E-2</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="20"/>
+        <v>1.311726434326812</v>
+      </c>
+      <c r="AK71">
         <f t="shared" si="12"/>
-        <v>1764</v>
-      </c>
-      <c r="AL62">
-        <v>42</v>
-      </c>
-      <c r="AM62">
+        <v>2500</v>
+      </c>
+      <c r="AL71">
+        <v>50</v>
+      </c>
+      <c r="AM71">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>22</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="16"/>
+        <v>4.5693051988030184E-3</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="17"/>
+        <v>0.38382163669945357</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="19"/>
+        <v>1.5180354055524606E-2</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="20"/>
+        <v>1.2751497406640668</v>
+      </c>
+      <c r="AK72">
+        <f t="shared" si="12"/>
+        <v>2601</v>
+      </c>
+      <c r="AL72">
+        <v>51</v>
+      </c>
+      <c r="AM72">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AO72">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>23</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="16"/>
+        <v>7.0248100795510734E-3</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="17"/>
+        <v>0.5900840466822902</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="19"/>
+        <v>1.4757059117303824E-2</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="20"/>
+        <v>1.2395929658535212</v>
+      </c>
+      <c r="AK73">
+        <f t="shared" si="12"/>
+        <v>2704</v>
+      </c>
+      <c r="AL73">
+        <v>52</v>
+      </c>
+      <c r="AM73">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AN73">
+        <f t="shared" si="14"/>
+        <v>52</v>
+      </c>
+      <c r="AO73">
+        <f t="shared" si="15"/>
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="74" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>24</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="16"/>
+        <v>1.0349886850538583E-2</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="17"/>
+        <v>0.86939049544524094</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="19"/>
+        <v>1.4345567500933637E-2</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="20"/>
+        <v>1.2050276700784255</v>
+      </c>
+      <c r="AK74">
+        <f t="shared" si="12"/>
+        <v>2809</v>
+      </c>
+      <c r="AL74">
+        <v>53</v>
+      </c>
+      <c r="AM74">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AN74">
+        <f t="shared" si="14"/>
+        <v>53</v>
+      </c>
+      <c r="AO74">
+        <f t="shared" si="15"/>
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="75" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>25</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="16"/>
+        <v>1.4638879961401773E-2</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="17"/>
+        <v>1.2296659167577488</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="19"/>
+        <v>1.3945550077964516E-2</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="20"/>
+        <v>1.1714262065490193</v>
+      </c>
+      <c r="AK75">
+        <f t="shared" si="12"/>
+        <v>2916</v>
+      </c>
+      <c r="AL75">
+        <v>54</v>
+      </c>
+      <c r="AM75">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="AN62">
+      <c r="AN75">
         <f t="shared" si="14"/>
-        <v>84</v>
-      </c>
-      <c r="AO62">
+        <v>108</v>
+      </c>
+      <c r="AO75">
         <f t="shared" si="15"/>
-        <v>3528</v>
-      </c>
-    </row>
-    <row r="63" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="AK63">
+        <v>5832</v>
+      </c>
+    </row>
+    <row r="76" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>26</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="16"/>
+        <v>1.9908876747506406E-2</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="17"/>
+        <v>1.6723456467905382</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="19"/>
+        <v>1.3556686897493536E-2</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="20"/>
+        <v>1.1387616993894571</v>
+      </c>
+      <c r="AK76">
         <f t="shared" si="12"/>
-        <v>1849</v>
-      </c>
-      <c r="AL63">
-        <v>43</v>
-      </c>
-      <c r="AM63">
+        <v>3025</v>
+      </c>
+      <c r="AL76">
+        <v>55</v>
+      </c>
+      <c r="AM76">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AN76">
         <f t="shared" si="14"/>
-        <v>86</v>
-      </c>
-      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AO76">
         <f t="shared" si="15"/>
-        <v>3698</v>
-      </c>
-    </row>
-    <row r="64" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="AK64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>27</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="16"/>
+        <v>2.6073254881178762E-2</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="17"/>
+        <v>2.1901534100190161</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="19"/>
+        <v>1.3178666930254069E-2</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="20"/>
+        <v>1.1070080221413419</v>
+      </c>
+      <c r="AK77">
         <f t="shared" si="12"/>
-        <v>1936</v>
-      </c>
-      <c r="AL64">
-        <v>44</v>
-      </c>
-      <c r="AM64">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AN64">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO64">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK65">
-        <f t="shared" si="12"/>
-        <v>2025</v>
-      </c>
-      <c r="AL65">
-        <v>45</v>
-      </c>
-      <c r="AM65">
+        <v>3136</v>
+      </c>
+      <c r="AL77">
+        <v>56</v>
+      </c>
+      <c r="AM77">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AN65">
-        <f t="shared" si="14"/>
-        <v>45</v>
-      </c>
-      <c r="AO65">
-        <f t="shared" si="15"/>
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="66" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK66">
-        <f t="shared" si="12"/>
-        <v>2116</v>
-      </c>
-      <c r="AL66">
-        <v>46</v>
-      </c>
-      <c r="AM66">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AN66">
-        <f t="shared" si="14"/>
-        <v>46</v>
-      </c>
-      <c r="AO66">
-        <f t="shared" si="15"/>
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="67" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK67">
-        <f t="shared" si="12"/>
-        <v>2209</v>
-      </c>
-      <c r="AL67">
-        <v>47</v>
-      </c>
-      <c r="AM67">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AN67">
-        <f t="shared" si="14"/>
-        <v>141</v>
-      </c>
-      <c r="AO67">
-        <f t="shared" si="15"/>
-        <v>6627</v>
-      </c>
-    </row>
-    <row r="68" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK68">
-        <f t="shared" si="12"/>
-        <v>2304</v>
-      </c>
-      <c r="AL68">
-        <v>48</v>
-      </c>
-      <c r="AM68">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AN68">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK69">
-        <f t="shared" si="12"/>
-        <v>2401</v>
-      </c>
-      <c r="AL69">
-        <v>49</v>
-      </c>
-      <c r="AM69">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AN69">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO69">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK70">
-        <f t="shared" si="12"/>
-        <v>2500</v>
-      </c>
-      <c r="AL70">
-        <v>50</v>
-      </c>
-      <c r="AM70">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AN70">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO70">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK71">
-        <f t="shared" si="12"/>
-        <v>2601</v>
-      </c>
-      <c r="AL71">
-        <v>51</v>
-      </c>
-      <c r="AM71">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AN71">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO71">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK72">
-        <f t="shared" si="12"/>
-        <v>2704</v>
-      </c>
-      <c r="AL72">
-        <v>52</v>
-      </c>
-      <c r="AM72">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AN72">
-        <f t="shared" si="14"/>
-        <v>52</v>
-      </c>
-      <c r="AO72">
-        <f t="shared" si="15"/>
-        <v>2704</v>
-      </c>
-    </row>
-    <row r="73" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK73">
-        <f t="shared" si="12"/>
-        <v>2809</v>
-      </c>
-      <c r="AL73">
-        <v>53</v>
-      </c>
-      <c r="AM73">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AN73">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO73">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK74">
-        <f t="shared" si="12"/>
-        <v>2916</v>
-      </c>
-      <c r="AL74">
-        <v>54</v>
-      </c>
-      <c r="AM74">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AN74">
-        <f t="shared" si="14"/>
-        <v>108</v>
-      </c>
-      <c r="AO74">
-        <f t="shared" si="15"/>
-        <v>5832</v>
-      </c>
-    </row>
-    <row r="75" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK75">
-        <f t="shared" si="12"/>
-        <v>3025</v>
-      </c>
-      <c r="AL75">
-        <v>55</v>
-      </c>
-      <c r="AM75">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AN75">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO75">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK76">
-        <f t="shared" si="12"/>
-        <v>3136</v>
-      </c>
-      <c r="AL76">
-        <v>56</v>
-      </c>
-      <c r="AM76">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AN76">
+      <c r="AN77">
         <f t="shared" si="14"/>
         <v>56</v>
       </c>
-      <c r="AO76">
+      <c r="AO77">
         <f t="shared" si="15"/>
         <v>3136</v>
       </c>
     </row>
-    <row r="77" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK77">
+    <row r="78" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>28</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="16"/>
+        <v>3.292679616423147E-2</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="17"/>
+        <v>2.7658508777954434</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="19"/>
+        <v>1.2811187819841356E-2</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="20"/>
+        <v>1.0761397768666738</v>
+      </c>
+      <c r="AK78">
         <f t="shared" si="12"/>
         <v>3249</v>
       </c>
-      <c r="AL77">
+      <c r="AL78">
         <v>57</v>
       </c>
-      <c r="AM77">
+      <c r="AM78">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AN77">
+      <c r="AN78">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AO77">
+      <c r="AO78">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK78">
+    <row r="79" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>29</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="16"/>
+        <v>4.0147983185076723E-2</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="17"/>
+        <v>3.3724305875464449</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="19"/>
+        <v>1.2453955640875081E-2</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="20"/>
+        <v>1.0461322738335068</v>
+      </c>
+      <c r="AK79">
         <f t="shared" si="12"/>
         <v>3364</v>
       </c>
-      <c r="AL78">
+      <c r="AL79">
         <v>58</v>
-      </c>
-      <c r="AM78">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AN78">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO78">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK79">
-        <f t="shared" si="12"/>
-        <v>3481</v>
-      </c>
-      <c r="AL79">
-        <v>59</v>
       </c>
       <c r="AM79">
         <f t="shared" si="13"/>
@@ -4372,62 +5276,119 @@
       </c>
       <c r="AN79">
         <f t="shared" si="14"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AO79">
         <f t="shared" si="15"/>
-        <v>3481</v>
-      </c>
-    </row>
-    <row r="80" spans="37:41" x14ac:dyDescent="0.25">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="80" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>30</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="16"/>
+        <v>4.7321089514143752E-2</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="17"/>
+        <v>3.9749715191880752</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="19"/>
+        <v>1.210668466390534E-2</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="20"/>
+        <v>1.0169615117680486</v>
+      </c>
       <c r="AK80">
         <f t="shared" si="12"/>
-        <v>3600</v>
+        <v>3481</v>
       </c>
       <c r="AL80">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AM80">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN80">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AO80">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="37:41" x14ac:dyDescent="0.25">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="81" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>31</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="16"/>
+        <v>5.3976571781294301E-2</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="17"/>
+        <v>4.5340320296287215</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="19"/>
+        <v>1.176909712687413E-2</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="20"/>
+        <v>0.9886041586574269</v>
+      </c>
       <c r="AK81">
         <f t="shared" si="12"/>
-        <v>3721</v>
+        <v>3600</v>
       </c>
       <c r="AL81">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AM81">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN81">
         <f t="shared" si="14"/>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="AO81">
         <f t="shared" si="15"/>
-        <v>3721</v>
-      </c>
-    </row>
-    <row r="82" spans="37:41" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>32</v>
+      </c>
+      <c r="J82">
+        <f t="shared" ref="J82:J113" si="21">(POWER(2.71828182845904,-1*$K$47)*POWER($K$47,I82))/(FACT(I82))</f>
+        <v>5.9644111818330188E-2</v>
+      </c>
+      <c r="K82">
+        <f t="shared" ref="K82:K113" si="22">J82*84</f>
+        <v>5.0101053927397361</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="19"/>
+        <v>1.144092301294946E-2</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="20"/>
+        <v>0.96103753308775464</v>
+      </c>
       <c r="AK82">
         <f t="shared" si="12"/>
-        <v>3844</v>
+        <v>3721</v>
       </c>
       <c r="AL82">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM82">
         <f t="shared" si="13"/>
@@ -4442,13 +5403,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="37:41" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>33</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="21"/>
+        <v>6.3909569512004702E-2</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="22"/>
+        <v>5.368403839008395</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="19"/>
+        <v>1.1121899834554442E-2</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="20"/>
+        <v>0.93423958610257318</v>
+      </c>
       <c r="AK83">
         <f t="shared" si="12"/>
-        <v>3969</v>
+        <v>3844</v>
       </c>
       <c r="AL83">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AM83">
         <f t="shared" si="13"/>
@@ -4463,34 +5443,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="37:41" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>34</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="21"/>
+        <v>6.646595229248492E-2</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="22"/>
+        <v>5.5831399925687331</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="19"/>
+        <v>1.0811772423418589E-2</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="20"/>
+        <v>0.90818888356716143</v>
+      </c>
       <c r="AK84">
         <f t="shared" si="12"/>
-        <v>4096</v>
+        <v>3969</v>
       </c>
       <c r="AL84">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AM84">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN84">
         <f t="shared" si="14"/>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AO84">
         <f t="shared" si="15"/>
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="85" spans="37:41" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>35</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="21"/>
+        <v>6.7149602087493321E-2</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="22"/>
+        <v>5.6405665753494389</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="19"/>
+        <v>1.0510292726483421E-2</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="20"/>
+        <v>0.8828645890246074</v>
+      </c>
       <c r="AK85">
         <f t="shared" si="12"/>
-        <v>4225</v>
+        <v>4096</v>
       </c>
       <c r="AL85">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AM85">
         <f t="shared" si="13"/>
@@ -4498,329 +5516,1266 @@
       </c>
       <c r="AN85">
         <f t="shared" si="14"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AO85">
         <f t="shared" si="15"/>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="86" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>36</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="21"/>
+        <v>6.5955831383715663E-2</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="22"/>
+        <v>5.540289836232116</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="19"/>
+        <v>1.0217219607499085E-2</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="20"/>
+        <v>0.85824644702992314</v>
+      </c>
+      <c r="AK86">
+        <f t="shared" si="12"/>
         <v>4225</v>
       </c>
-    </row>
-    <row r="86" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK86">
-        <f t="shared" ref="AK86:AK100" si="18">AL86*AL86</f>
+      <c r="AL86">
+        <v>65</v>
+      </c>
+      <c r="AM86">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AN86">
+        <f t="shared" si="14"/>
+        <v>65</v>
+      </c>
+      <c r="AO86">
+        <f t="shared" si="15"/>
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="87" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>37</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="21"/>
+        <v>6.3032383722383414E-2</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="22"/>
+        <v>5.2947202326802065</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="19"/>
+        <v>9.9323186541533659E-3</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="20"/>
+        <v>0.83431476694888274</v>
+      </c>
+      <c r="AK87">
+        <f t="shared" ref="AK87:AK101" si="23">AL87*AL87</f>
         <v>4356</v>
       </c>
-      <c r="AL86">
+      <c r="AL87">
         <v>66</v>
       </c>
-      <c r="AM86">
-        <f t="shared" ref="AM86:AM100" si="19">COUNTIF($C$31:$H$44,AL86)</f>
+      <c r="AM87">
+        <f t="shared" ref="AM87:AM101" si="24">COUNTIF($C$31:$H$44,AL87)</f>
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <f t="shared" ref="AN87:AN101" si="25">AL87*AM87</f>
+        <v>0</v>
+      </c>
+      <c r="AO87">
+        <f t="shared" ref="AO87:AO101" si="26">AK87*AM87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>38</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="21"/>
+        <v>5.8653291800617839E-2</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="22"/>
+        <v>4.9268765112518986</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="19"/>
+        <v>9.6553619905787851E-3</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="20"/>
+        <v>0.81105040720861798</v>
+      </c>
+      <c r="AK88">
+        <f t="shared" si="23"/>
+        <v>4489</v>
+      </c>
+      <c r="AL88">
+        <v>67</v>
+      </c>
+      <c r="AM88">
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AN86">
-        <f t="shared" ref="AN86:AN100" si="20">AL86*AM86</f>
+      <c r="AN88">
+        <f t="shared" si="25"/>
+        <v>67</v>
+      </c>
+      <c r="AO88">
+        <f t="shared" si="26"/>
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="89" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>39</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="21"/>
+        <v>5.3178984565893483E-2</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="22"/>
+        <v>4.4670347035350524</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="19"/>
+        <v>9.3861280950877923E-3</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="20"/>
+        <v>0.78843475998737456</v>
+      </c>
+      <c r="AK89">
+        <f t="shared" si="23"/>
+        <v>4624</v>
+      </c>
+      <c r="AL89">
+        <v>68</v>
+      </c>
+      <c r="AM89">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AO89">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>40</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="21"/>
+        <v>4.7010222356249839E-2</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="22"/>
+        <v>3.9488586779249863</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="19"/>
+        <v>9.1244016229903527E-3</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="20"/>
+        <v>0.76644973633118962</v>
+      </c>
+      <c r="AK90">
+        <f t="shared" si="23"/>
+        <v>4761</v>
+      </c>
+      <c r="AL90">
+        <v>69</v>
+      </c>
+      <c r="AM90">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AN90">
+        <f t="shared" si="25"/>
+        <v>69</v>
+      </c>
+      <c r="AO90">
+        <f t="shared" si="26"/>
+        <v>4761</v>
+      </c>
+    </row>
+    <row r="91" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>41</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="21"/>
+        <v>4.0543450305292564E-2</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="22"/>
+        <v>3.4056498256445753</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="19"/>
+        <v>8.8699732343521E-3</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="20"/>
+        <v>0.74507775168557644</v>
+      </c>
+      <c r="AK91">
+        <f t="shared" si="23"/>
+        <v>4900</v>
+      </c>
+      <c r="AL91">
+        <v>70</v>
+      </c>
+      <c r="AM91">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AN91">
+        <f t="shared" si="25"/>
+        <v>70</v>
+      </c>
+      <c r="AO91">
+        <f t="shared" si="26"/>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="92" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>42</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="21"/>
+        <v>3.413372387607487E-2</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="22"/>
+        <v>2.8672328055902891</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="19"/>
+        <v>8.6226394265553931E-3</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="20"/>
+        <v>0.72430171183065306</v>
+      </c>
+      <c r="AK92">
+        <f t="shared" si="23"/>
+        <v>5041</v>
+      </c>
+      <c r="AL92">
+        <v>71</v>
+      </c>
+      <c r="AM92">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AO92">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>43</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="21"/>
+        <v>2.8069034331581564E-2</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="22"/>
+        <v>2.3577988838528512</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="19"/>
+        <v>8.3822023715292935E-3</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="20"/>
+        <v>0.7041049992084607</v>
+      </c>
+      <c r="AK93">
+        <f t="shared" si="23"/>
+        <v>5184</v>
+      </c>
+      <c r="AL93">
+        <v>72</v>
+      </c>
+      <c r="AM93">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AN93">
+        <f t="shared" si="25"/>
+        <v>72</v>
+      </c>
+      <c r="AO93">
+        <f t="shared" si="26"/>
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="94" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>44</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="21"/>
+        <v>2.2557296681016456E-2</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="22"/>
+        <v>1.8948129212053824</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="19"/>
+        <v>8.1484697575182723E-3</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="20"/>
+        <v>0.68447145963153488</v>
+      </c>
+      <c r="AK94">
+        <f t="shared" si="23"/>
+        <v>5329</v>
+      </c>
+      <c r="AL94">
+        <v>73</v>
+      </c>
+      <c r="AM94">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="AN94">
+        <f t="shared" si="25"/>
+        <v>146</v>
+      </c>
+      <c r="AO94">
+        <f t="shared" si="26"/>
+        <v>10658</v>
+      </c>
+    </row>
+    <row r="95" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>45</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="21"/>
+        <v>1.7725022458683161E-2</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="22"/>
+        <v>1.4889018865293855</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="19"/>
+        <v>7.9212546352631155E-3</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="20"/>
+        <v>0.66538538936210168</v>
+      </c>
+      <c r="AK95">
+        <f t="shared" si="23"/>
+        <v>5476</v>
+      </c>
+      <c r="AL95">
+        <v>74</v>
+      </c>
+      <c r="AM95">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AO95">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>46</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="21"/>
+        <v>1.3625147698674707E-2</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="22"/>
+        <v>1.1445124066886754</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="19"/>
+        <v>7.7003752684709726E-3</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="20"/>
+        <v>0.64683152255156173</v>
+      </c>
+      <c r="AK96">
+        <f t="shared" si="23"/>
+        <v>5625</v>
+      </c>
+      <c r="AL96">
+        <v>75</v>
+      </c>
+      <c r="AM96">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AN96">
+        <f t="shared" si="25"/>
+        <v>75</v>
+      </c>
+      <c r="AO96">
+        <f t="shared" si="26"/>
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="97" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>47</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="21"/>
+        <v>1.0250749417556118E-2</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="22"/>
+        <v>0.86106295107471387</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="19"/>
+        <v>7.4856549884549737E-3</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="20"/>
+        <v>0.62879501903021784</v>
+      </c>
+      <c r="AK97">
+        <f t="shared" si="23"/>
+        <v>5776</v>
+      </c>
+      <c r="AL97">
+        <v>76</v>
+      </c>
+      <c r="AM97">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AN97">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AO97">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>48</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="21"/>
+        <v>7.5513854042663434E-3</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="22"/>
+        <v>0.63431637395837281</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="19"/>
+        <v>7.2769220528271011E-3</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="20"/>
+        <v>0.61126145243747654</v>
+      </c>
+      <c r="AK98">
+        <f t="shared" si="23"/>
+        <v>5929</v>
+      </c>
+      <c r="AL98">
+        <v>77</v>
+      </c>
+      <c r="AM98">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AN98">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AO98">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>49</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="21"/>
+        <v>5.4493262835685237E-3</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="22"/>
+        <v>0.45774340781975598</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="19"/>
+        <v>7.0740095081313539E-3</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="20"/>
+        <v>0.59421679868303368</v>
+      </c>
+      <c r="AK99">
+        <f t="shared" si="23"/>
+        <v>6084</v>
+      </c>
+      <c r="AL99">
+        <v>78</v>
+      </c>
+      <c r="AM99">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AO99">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>50</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="21"/>
+        <v>3.8537635477396627E-3</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="22"/>
+        <v>0.32371613801013166</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="19"/>
+        <v>6.8767550563072896E-3</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="20"/>
+        <v>0.57764742472981234</v>
+      </c>
+      <c r="AK100">
+        <f t="shared" si="23"/>
+        <v>6241</v>
+      </c>
+      <c r="AL100">
+        <v>79</v>
+      </c>
+      <c r="AM100">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AO100">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>51</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="21"/>
+        <v>2.6719427264328337E-3</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="22"/>
+        <v>0.22444318902035804</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="19"/>
+        <v>6.6850009248771557E-3</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="20"/>
+        <v>0.56154007768968106</v>
+      </c>
+      <c r="AK101">
+        <f t="shared" si="23"/>
+        <v>6400</v>
+      </c>
+      <c r="AL101">
+        <v>80</v>
+      </c>
+      <c r="AM101">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AN101">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AO101">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>52</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="21"/>
+        <v>1.8169210539743259E-3</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="22"/>
+        <v>0.15262136853384337</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="19"/>
+        <v>6.4985937407527556E-3</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="20"/>
+        <v>0.54588187422323142</v>
+      </c>
+    </row>
+    <row r="103" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <v>53</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="21"/>
+        <v>1.2121948767647587E-3</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="22"/>
+        <v>0.10182436964823972</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="19"/>
+        <v>6.317384407561165E-3</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="20"/>
+        <v>0.53066029023513783</v>
+      </c>
+    </row>
+    <row r="104" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <v>54</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="21"/>
+        <v>7.9376316374818272E-4</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="22"/>
+        <v>6.6676105754847351E-2</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="19"/>
+        <v>6.1412279863911103E-3</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="20"/>
+        <v>0.5158631508568533</v>
+      </c>
+    </row>
+    <row r="105" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <v>55</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="21"/>
+        <v>5.1031755400246818E-4</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="22"/>
+        <v>4.2866674536207329E-2</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="19"/>
+        <v>5.9699835798646943E-3</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="20"/>
+        <v>0.50147862070863436</v>
+      </c>
+    </row>
+    <row r="106" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <v>56</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="21"/>
+        <v>3.222290840987012E-4</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="22"/>
+        <v>2.70672430642909E-2</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="19"/>
+        <v>5.8035142194416932E-3</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="20"/>
+        <v>0.48749519443310224</v>
+      </c>
+    </row>
+    <row r="107" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <v>57</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="21"/>
+        <v>1.998950949777205E-4</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="22"/>
+        <v>1.6791187978128522E-2</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="19"/>
+        <v>5.6416867558662983E-3</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="20"/>
+        <v>0.47390168749276906</v>
+      </c>
+    </row>
+    <row r="108" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <v>58</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="21"/>
+        <v>1.2186707859331375E-4</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="22"/>
+        <v>1.0236834601838355E-2</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="19"/>
+        <v>5.4843717526687069E-3</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="20"/>
+        <v>0.46068722722417138</v>
+      </c>
+    </row>
+    <row r="109" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <v>59</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="21"/>
+        <v>7.3037625407789398E-5</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="22"/>
+        <v>6.1351605342543098E-3</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="19"/>
+        <v>5.3314433826363332E-3</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="20"/>
+        <v>0.44784124414145199</v>
+      </c>
+    </row>
+    <row r="110" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <v>60</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="21"/>
+        <v>4.3043507240323889E-5</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="22"/>
+        <v>3.6156546081872066E-3</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="19"/>
+        <v>5.1827793271718731E-3</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="20"/>
+        <v>0.43535346348243736</v>
+      </c>
+    </row>
+    <row r="111" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <v>61</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="21"/>
+        <v>2.4951121574063166E-5</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="22"/>
+        <v>2.0958942122213061E-3</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="19"/>
+        <v>5.0382606784576981E-3</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="20"/>
+        <v>0.42321389699044665</v>
+      </c>
+    </row>
+    <row r="112" spans="9:41" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <v>62</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="21"/>
+        <v>1.4230188046110859E-5</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="22"/>
+        <v>1.1953357958733122E-3</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="19"/>
+        <v>4.8977718443483382E-3</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="20"/>
+        <v>0.41141283492526043</v>
+      </c>
+    </row>
+    <row r="113" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <v>63</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="21"/>
+        <v>7.986975385880638E-6</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="22"/>
+        <v>6.7090593241397357E-4</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="19"/>
+        <v>4.7612004559149821E-3</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="20"/>
+        <v>0.3999408382968585</v>
+      </c>
+    </row>
+    <row r="114" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <v>64</v>
+      </c>
+      <c r="J114">
+        <f t="shared" ref="J114:J145" si="27">(POWER(2.71828182845904,-1*$K$47)*POWER($K$47,I114))/(FACT(I114))</f>
+        <v>4.4128039006990509E-6</v>
+      </c>
+      <c r="K114">
+        <f t="shared" ref="K114:K145" si="28">J114*84</f>
+        <v>3.7067552765872026E-4</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="19"/>
+        <v>4.6284372775680432E-3</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="20"/>
+        <v>0.38878873131571562</v>
+      </c>
+    </row>
+    <row r="115" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <v>65</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="27"/>
+        <v>2.4005653219802833E-6</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="28"/>
+        <v>2.016474870463438E-4</v>
+      </c>
+      <c r="M115">
+        <f t="shared" ref="M115:M130" si="29">(POWER($L$47,$N$47)*POWER(I115,$N$47-1)*POWER(2.71828182845904,-1*$L$47*I115)/FACT($N$47-1))</f>
+        <v>4.4993761196858986E-3</v>
+      </c>
+      <c r="N115">
+        <f t="shared" ref="N115:N130" si="30">M115*84</f>
+        <v>0.3779475940536155</v>
+      </c>
+    </row>
+    <row r="116" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I116">
         <v>66</v>
       </c>
-      <c r="AO86">
-        <f t="shared" ref="AO86:AO100" si="21">AK86*AM86</f>
-        <v>4356</v>
-      </c>
-    </row>
-    <row r="87" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK87">
-        <f t="shared" si="18"/>
-        <v>4489</v>
-      </c>
-      <c r="AL87">
+      <c r="J116">
+        <f t="shared" si="27"/>
+        <v>1.2861210573518606E-6</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="28"/>
+        <v>1.0803416881755629E-4</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="29"/>
+        <v>4.3739137536799241E-3</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="30"/>
+        <v>0.36740875530911365</v>
+      </c>
+    </row>
+    <row r="117" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I117">
         <v>67</v>
       </c>
-      <c r="AM87">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AN87">
-        <f t="shared" si="20"/>
-        <v>67</v>
-      </c>
-      <c r="AO87">
-        <f t="shared" si="21"/>
-        <v>4489</v>
-      </c>
-    </row>
-    <row r="88" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK88">
-        <f t="shared" si="18"/>
-        <v>4624</v>
-      </c>
-      <c r="AL88">
+      <c r="J117">
+        <f t="shared" si="27"/>
+        <v>6.7876478489495184E-7</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="28"/>
+        <v>5.7016241931175957E-5</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="29"/>
+        <v>4.2519498294278949E-3</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="30"/>
+        <v>0.35716378567194318</v>
+      </c>
+    </row>
+    <row r="118" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I118">
         <v>68</v>
       </c>
-      <c r="AM88">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AN88">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AO88">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK89">
-        <f t="shared" si="18"/>
-        <v>4761</v>
-      </c>
-      <c r="AL89">
+      <c r="J118">
+        <f t="shared" si="27"/>
+        <v>3.5295768814537524E-7</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="28"/>
+        <v>2.9648445804211521E-5</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="29"/>
+        <v>4.1333867950096997E-3</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="30"/>
+        <v>0.34720449078081478</v>
+      </c>
+    </row>
+    <row r="119" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I119">
         <v>69</v>
       </c>
-      <c r="AM89">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AN89">
-        <f t="shared" si="20"/>
-        <v>69</v>
-      </c>
-      <c r="AO89">
-        <f t="shared" si="21"/>
-        <v>4761</v>
-      </c>
-    </row>
-    <row r="90" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK90">
-        <f t="shared" si="18"/>
-        <v>4900</v>
-      </c>
-      <c r="AL90">
+      <c r="J119">
+        <f t="shared" si="27"/>
+        <v>1.8087802685247058E-7</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="28"/>
+        <v>1.5193754255607529E-5</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="29"/>
+        <v>4.0181298186811754E-3</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="30"/>
+        <v>0.33752290476921876</v>
+      </c>
+    </row>
+    <row r="120" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I120">
         <v>70</v>
       </c>
-      <c r="AM90">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AN90">
-        <f t="shared" si="20"/>
-        <v>70</v>
-      </c>
-      <c r="AO90">
-        <f t="shared" si="21"/>
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="91" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK91">
-        <f t="shared" si="18"/>
-        <v>5041</v>
-      </c>
-      <c r="AL91">
+      <c r="J120">
+        <f t="shared" si="27"/>
+        <v>9.1369243278619428E-8</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="28"/>
+        <v>7.6750164354040328E-6</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="29"/>
+        <v>3.906086713023654E-3</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="30"/>
+        <v>0.32811128389398692</v>
+      </c>
+    </row>
+    <row r="121" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I121">
         <v>71</v>
       </c>
-      <c r="AM91">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AN91">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AO91">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK92">
-        <f t="shared" si="18"/>
-        <v>5184</v>
-      </c>
-      <c r="AL92">
+      <c r="J121">
+        <f t="shared" si="27"/>
+        <v>4.5504456934253275E-8</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="28"/>
+        <v>3.8223743824772748E-6</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="29"/>
+        <v>3.7971678612085599E-3</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="30"/>
+        <v>0.31896210034151906</v>
+      </c>
+    </row>
+    <row r="122" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I122">
         <v>72</v>
       </c>
-      <c r="AM92">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AN92">
-        <f t="shared" si="20"/>
-        <v>72</v>
-      </c>
-      <c r="AO92">
-        <f t="shared" si="21"/>
-        <v>5184</v>
-      </c>
-    </row>
-    <row r="93" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK93">
-        <f t="shared" si="18"/>
-        <v>5329</v>
-      </c>
-      <c r="AL93">
+      <c r="J122">
+        <f t="shared" si="27"/>
+        <v>2.2347744405488817E-8</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="28"/>
+        <v>1.8772105300610606E-6</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="29"/>
+        <v>3.6912861453180621E-3</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="30"/>
+        <v>0.31006803620671719</v>
+      </c>
+    </row>
+    <row r="123" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I123">
         <v>73</v>
       </c>
-      <c r="AM93">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="AN93">
-        <f t="shared" si="20"/>
-        <v>146</v>
-      </c>
-      <c r="AO93">
-        <f t="shared" si="21"/>
-        <v>10658</v>
-      </c>
-    </row>
-    <row r="94" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK94">
-        <f t="shared" si="18"/>
-        <v>5476</v>
-      </c>
-      <c r="AL94">
+      <c r="J123">
+        <f t="shared" si="27"/>
+        <v>1.0824880029836776E-8</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="28"/>
+        <v>9.0928992250628916E-7</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="29"/>
+        <v>3.5883568766644754E-3</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="30"/>
+        <v>0.30142197763981593</v>
+      </c>
+    </row>
+    <row r="124" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I124">
         <v>74</v>
       </c>
-      <c r="AM94">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AN94">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AO94">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK95">
-        <f t="shared" si="18"/>
-        <v>5625</v>
-      </c>
-      <c r="AL95">
+      <c r="J124">
+        <f t="shared" si="27"/>
+        <v>5.1725372683111963E-9</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="28"/>
+        <v>4.3449313053814046E-7</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="29"/>
+        <v>3.4882977280526533E-3</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="30"/>
+        <v>0.29301700915642287</v>
+      </c>
+    </row>
+    <row r="125" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I125">
         <v>75</v>
       </c>
-      <c r="AM95">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="AN95">
-        <f t="shared" si="20"/>
-        <v>150</v>
-      </c>
-      <c r="AO95">
-        <f t="shared" si="21"/>
-        <v>11250</v>
-      </c>
-    </row>
-    <row r="96" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK96">
-        <f t="shared" si="18"/>
-        <v>5776</v>
-      </c>
-      <c r="AL96">
+      <c r="J125">
+        <f t="shared" si="27"/>
+        <v>2.4386789040997848E-9</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="28"/>
+        <v>2.0484902794438192E-7</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="29"/>
+        <v>3.391028667931202E-3</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="30"/>
+        <v>0.28484640810622097</v>
+      </c>
+    </row>
+    <row r="126" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I126">
         <v>76</v>
       </c>
-      <c r="AM96">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AN96">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AO96">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK97">
-        <f t="shared" si="18"/>
-        <v>5929</v>
-      </c>
-      <c r="AL97">
+      <c r="J126">
+        <f t="shared" si="27"/>
+        <v>1.1346274480127421E-9</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="28"/>
+        <v>9.5308705633070332E-8</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="29"/>
+        <v>3.2964718963798532E-3</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="30"/>
+        <v>0.27690363929590767</v>
+      </c>
+    </row>
+    <row r="127" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I127">
         <v>77</v>
       </c>
-      <c r="AM97">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AN97">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AO97">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK98">
-        <f t="shared" si="18"/>
-        <v>6084</v>
-      </c>
-      <c r="AL98">
+      <c r="J127">
+        <f t="shared" si="27"/>
+        <v>5.2104450080169557E-10</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="28"/>
+        <v>4.3767738067342429E-8</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="29"/>
+        <v>3.2045517828817871E-3</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="30"/>
+        <v>0.26918234976207012</v>
+      </c>
+    </row>
+    <row r="128" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I128">
         <v>78</v>
       </c>
-      <c r="AM98">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AN98">
-        <f t="shared" si="20"/>
-        <v>78</v>
-      </c>
-      <c r="AO98">
-        <f t="shared" si="21"/>
-        <v>6084</v>
-      </c>
-    </row>
-    <row r="99" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK99">
-        <f t="shared" si="18"/>
-        <v>6241</v>
-      </c>
-      <c r="AL99">
+      <c r="J128">
+        <f t="shared" si="27"/>
+        <v>2.3620684036343549E-10</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="28"/>
+        <v>1.9841374590528583E-8</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="29"/>
+        <v>3.1151948058311361E-3</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="30"/>
+        <v>0.26167636368981545</v>
+      </c>
+    </row>
+    <row r="129" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I129">
         <v>79</v>
       </c>
-      <c r="AM99">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AN99">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AO99">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="37:41" x14ac:dyDescent="0.25">
-      <c r="AK100">
-        <f t="shared" si="18"/>
-        <v>6400</v>
-      </c>
-      <c r="AL100">
+      <c r="J129">
+        <f t="shared" si="27"/>
+        <v>1.0572498576267181E-10</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="28"/>
+        <v>8.8808988040644324E-9</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="29"/>
+        <v>3.0283294937272927E-3</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="30"/>
+        <v>0.25437967747309259</v>
+      </c>
+    </row>
+    <row r="130" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I130">
         <v>80</v>
       </c>
-      <c r="AM100">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AN100">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AO100">
-        <f t="shared" si="21"/>
-        <v>0</v>
+      <c r="J130">
+        <f t="shared" si="27"/>
+        <v>4.6730443707100962E-11</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="28"/>
+        <v>3.9253572713964809E-9</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="29"/>
+        <v>2.9438863680089616E-3</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="30"/>
+        <v>0.24728645491275278</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K17:K24">
+    <sortCondition ref="K17"/>
+  </sortState>
   <mergeCells count="6">
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="B28:H28"/>
@@ -4832,9 +6787,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C51" twoDigitTextYear="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Lab9_10/Borkowska_Justyna_WCY19KC1S1.xlsx
+++ b/Lab9_10/Borkowska_Justyna_WCY19KC1S1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.aWAT\5S\Podstawy symulacji\lab\lab9-10\Lab9_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2936DBD0-1DFB-4E51-BC06-18A76F1A690F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCDCE1B-9986-4370-A636-A196F5C456F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>14h</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>Eliminacja &lt;5</t>
   </si>
 </sst>
 </file>
@@ -1882,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,27 +2047,27 @@
       </c>
       <c r="C6">
         <f ca="1">RANDBETWEEN(1,15)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:H7" ca="1" si="0">RANDBETWEEN(1,15)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N6" s="5">
         <v>4</v>
@@ -2095,27 +2098,27 @@
       </c>
       <c r="C7">
         <f ca="1">RANDBETWEEN(1,15)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N7" s="5">
         <v>5</v>
@@ -2146,27 +2149,27 @@
       </c>
       <c r="C8">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:H9" ca="1" si="1">RANDBETWEEN(10,20)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N8" s="5">
         <v>6</v>
@@ -2197,27 +2200,27 @@
       </c>
       <c r="C9">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N9" s="5">
         <v>7</v>
@@ -2255,27 +2258,27 @@
       </c>
       <c r="C10">
         <f ca="1">RANDBETWEEN(10,25)</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <f t="shared" ref="D10:H10" ca="1" si="2">RANDBETWEEN(10,25)</f>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N10" s="5">
         <v>8</v>
@@ -2313,27 +2316,27 @@
       </c>
       <c r="C11">
         <f ca="1">RANDBETWEEN(15,40)</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <f t="shared" ref="D11:H12" ca="1" si="3">RANDBETWEEN(15,40)</f>
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N11" s="5">
         <v>9</v>
@@ -2371,27 +2374,27 @@
       </c>
       <c r="C12">
         <f ca="1">RANDBETWEEN(15,40)</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N12" s="5">
         <v>10</v>
@@ -2429,27 +2432,27 @@
       </c>
       <c r="C13">
         <f ca="1">RANDBETWEEN(20,60)</f>
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:H13" ca="1" si="4">RANDBETWEEN(20,60)</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="N13" s="5">
         <v>11</v>
@@ -2480,27 +2483,27 @@
       </c>
       <c r="C14">
         <f ca="1">RANDBETWEEN(40,80)</f>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D14">
         <f t="shared" ref="D14:H16" ca="1" si="5">RANDBETWEEN(40,80)</f>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="N14" s="5">
         <v>12</v>
@@ -2538,27 +2541,27 @@
       </c>
       <c r="C15">
         <f ca="1">RANDBETWEEN(40,80)</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="N15" s="5">
         <v>13</v>
@@ -2596,27 +2599,27 @@
       </c>
       <c r="C16">
         <f ca="1">RANDBETWEEN(40,80)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N16" s="5">
         <v>14</v>
@@ -2647,27 +2650,27 @@
       </c>
       <c r="C17">
         <f ca="1">RANDBETWEEN(35,70)</f>
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:H17" ca="1" si="6">RANDBETWEEN(35,70)</f>
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K17" s="12"/>
     </row>
@@ -2678,27 +2681,27 @@
       </c>
       <c r="C18">
         <f ca="1">RANDBETWEEN(20,40)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18">
         <f t="shared" ref="D18:H18" ca="1" si="7">RANDBETWEEN(20,40)</f>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="7"/>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="7"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18" s="12"/>
     </row>
@@ -2709,15 +2712,15 @@
       </c>
       <c r="C19">
         <f ca="1">RANDBETWEEN(10, 20)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <f t="shared" ref="D19:H19" ca="1" si="8">RANDBETWEEN(10, 20)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="8"/>
@@ -2725,11 +2728,11 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K19" s="12"/>
       <c r="Z19" t="s">
@@ -4037,10 +4040,6 @@
         <f t="shared" ref="N51:N114" si="20">M51*84</f>
         <v>2.3093244089213374</v>
       </c>
-      <c r="P51">
-        <f>SUM(M51:M130)</f>
-        <v>0.88329556012262467</v>
-      </c>
       <c r="AJ51">
         <f t="shared" si="12"/>
         <v>900</v>
@@ -4095,10 +4094,6 @@
         <f t="shared" si="20"/>
         <v>2.2449303026026937</v>
       </c>
-      <c r="P52">
-        <f>SUM(N51:N130)</f>
-        <v>74.196827050300541</v>
-      </c>
       <c r="AJ52">
         <f t="shared" si="12"/>
         <v>961</v>
@@ -4347,7 +4342,7 @@
         <v>4</v>
       </c>
       <c r="G57">
-        <f t="shared" si="18"/>
+        <f>(POWER(D57-E57,2)/D57)</f>
         <v>0.49604548961706874</v>
       </c>
       <c r="I57">
@@ -4518,6 +4513,9 @@
       </c>
     </row>
     <row r="61" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="C61" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I61">
         <v>11</v>
       </c>
@@ -4558,7 +4556,16 @@
       </c>
     </row>
     <row r="62" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="E62" s="1"/>
+      <c r="D62">
+        <v>20.400809464895648</v>
+      </c>
+      <c r="E62" s="1">
+        <v>12</v>
+      </c>
+      <c r="G62">
+        <f>(POWER(D62-E62,2)/D62)</f>
+        <v>3.4593529137615175</v>
+      </c>
       <c r="I62">
         <v>12</v>
       </c>
@@ -4599,7 +4606,16 @@
       </c>
     </row>
     <row r="63" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="E63" s="1"/>
+      <c r="D63">
+        <v>15.37540492375925</v>
+      </c>
+      <c r="E63" s="1">
+        <v>20</v>
+      </c>
+      <c r="G63">
+        <f t="shared" ref="G63:G67" si="21">(POWER(D63-E63,2)/D63)</f>
+        <v>1.390979927048396</v>
+      </c>
       <c r="I63">
         <v>13</v>
       </c>
@@ -4640,7 +4656,16 @@
       </c>
     </row>
     <row r="64" spans="3:41" x14ac:dyDescent="0.25">
-      <c r="E64" s="1"/>
+      <c r="D64">
+        <v>11.587926301470873</v>
+      </c>
+      <c r="E64" s="1">
+        <v>16</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="21"/>
+        <v>1.6798859273709392</v>
+      </c>
       <c r="I64">
         <v>14</v>
       </c>
@@ -4680,8 +4705,17 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="65" spans="5:41" x14ac:dyDescent="0.25">
-      <c r="E65" s="1"/>
+    <row r="65" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>8.7334308679455113</v>
+      </c>
+      <c r="E65" s="1">
+        <v>12</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="21"/>
+        <v>1.2217963427929881</v>
+      </c>
       <c r="I65">
         <v>15</v>
       </c>
@@ -4721,8 +4755,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="5:41" x14ac:dyDescent="0.25">
-      <c r="E66" s="1"/>
+    <row r="66" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>6.5820935291504279</v>
+      </c>
+      <c r="E66" s="1">
+        <v>8</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="21"/>
+        <v>0.30544366335319839</v>
+      </c>
       <c r="I66">
         <v>16</v>
       </c>
@@ -4762,8 +4805,19 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="67" spans="5:41" x14ac:dyDescent="0.25">
-      <c r="E67" s="1"/>
+    <row r="67" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <f>SUM(D55:D57)</f>
+        <v>11.517161963078779</v>
+      </c>
+      <c r="E67" s="1">
+        <f>SUM(E55:E57)</f>
+        <v>16</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="21"/>
+        <v>1.7448601426019772</v>
+      </c>
       <c r="I67">
         <v>17</v>
       </c>
@@ -4803,7 +4857,14 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="68" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:41" x14ac:dyDescent="0.25">
+      <c r="F68" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68">
+        <f>SUM(G62:G67)</f>
+        <v>9.8023189169290177</v>
+      </c>
       <c r="I68">
         <v>18</v>
       </c>
@@ -4843,7 +4904,7 @@
         <v>4418</v>
       </c>
     </row>
-    <row r="69" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:41" x14ac:dyDescent="0.25">
       <c r="I69">
         <v>19</v>
       </c>
@@ -4883,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:41" x14ac:dyDescent="0.25">
       <c r="I70">
         <v>20</v>
       </c>
@@ -4923,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:41" x14ac:dyDescent="0.25">
       <c r="I71">
         <v>21</v>
       </c>
@@ -4963,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:41" x14ac:dyDescent="0.25">
       <c r="I72">
         <v>22</v>
       </c>
@@ -5003,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:41" x14ac:dyDescent="0.25">
       <c r="I73">
         <v>23</v>
       </c>
@@ -5043,7 +5104,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="74" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:41" x14ac:dyDescent="0.25">
       <c r="I74">
         <v>24</v>
       </c>
@@ -5083,7 +5144,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="75" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:41" x14ac:dyDescent="0.25">
       <c r="I75">
         <v>25</v>
       </c>
@@ -5123,7 +5184,7 @@
         <v>5832</v>
       </c>
     </row>
-    <row r="76" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:41" x14ac:dyDescent="0.25">
       <c r="I76">
         <v>26</v>
       </c>
@@ -5163,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:41" x14ac:dyDescent="0.25">
       <c r="I77">
         <v>27</v>
       </c>
@@ -5203,7 +5264,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="78" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:41" x14ac:dyDescent="0.25">
       <c r="I78">
         <v>28</v>
       </c>
@@ -5243,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:41" x14ac:dyDescent="0.25">
       <c r="I79">
         <v>29</v>
       </c>
@@ -5283,7 +5344,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="80" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:41" x14ac:dyDescent="0.25">
       <c r="I80">
         <v>30</v>
       </c>
@@ -5368,11 +5429,11 @@
         <v>32</v>
       </c>
       <c r="J82">
-        <f t="shared" ref="J82:J113" si="21">(POWER(2.71828182845904,-1*$K$47)*POWER($K$47,I82))/(FACT(I82))</f>
+        <f t="shared" ref="J82:J113" si="22">(POWER(2.71828182845904,-1*$K$47)*POWER($K$47,I82))/(FACT(I82))</f>
         <v>5.9644111818330188E-2</v>
       </c>
       <c r="K82">
-        <f t="shared" ref="K82:K113" si="22">J82*84</f>
+        <f t="shared" ref="K82:K113" si="23">J82*84</f>
         <v>5.0101053927397361</v>
       </c>
       <c r="M82">
@@ -5408,11 +5469,11 @@
         <v>33</v>
       </c>
       <c r="J83">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.3909569512004702E-2</v>
       </c>
       <c r="K83">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.368403839008395</v>
       </c>
       <c r="M83">
@@ -5448,11 +5509,11 @@
         <v>34</v>
       </c>
       <c r="J84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.646595229248492E-2</v>
       </c>
       <c r="K84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.5831399925687331</v>
       </c>
       <c r="M84">
@@ -5488,11 +5549,11 @@
         <v>35</v>
       </c>
       <c r="J85">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.7149602087493321E-2</v>
       </c>
       <c r="K85">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.6405665753494389</v>
       </c>
       <c r="M85">
@@ -5528,11 +5589,11 @@
         <v>36</v>
       </c>
       <c r="J86">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.5955831383715663E-2</v>
       </c>
       <c r="K86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.540289836232116</v>
       </c>
       <c r="M86">
@@ -5568,11 +5629,11 @@
         <v>37</v>
       </c>
       <c r="J87">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.3032383722383414E-2</v>
       </c>
       <c r="K87">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.2947202326802065</v>
       </c>
       <c r="M87">
@@ -5584,22 +5645,22 @@
         <v>0.83431476694888274</v>
       </c>
       <c r="AK87">
-        <f t="shared" ref="AK87:AK101" si="23">AL87*AL87</f>
+        <f t="shared" ref="AK87:AK101" si="24">AL87*AL87</f>
         <v>4356</v>
       </c>
       <c r="AL87">
         <v>66</v>
       </c>
       <c r="AM87">
-        <f t="shared" ref="AM87:AM101" si="24">COUNTIF($C$31:$H$44,AL87)</f>
+        <f t="shared" ref="AM87:AM101" si="25">COUNTIF($C$31:$H$44,AL87)</f>
         <v>0</v>
       </c>
       <c r="AN87">
-        <f t="shared" ref="AN87:AN101" si="25">AL87*AM87</f>
+        <f t="shared" ref="AN87:AN101" si="26">AL87*AM87</f>
         <v>0</v>
       </c>
       <c r="AO87">
-        <f t="shared" ref="AO87:AO101" si="26">AK87*AM87</f>
+        <f t="shared" ref="AO87:AO101" si="27">AK87*AM87</f>
         <v>0</v>
       </c>
     </row>
@@ -5608,11 +5669,11 @@
         <v>38</v>
       </c>
       <c r="J88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.8653291800617839E-2</v>
       </c>
       <c r="K88">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.9268765112518986</v>
       </c>
       <c r="M88">
@@ -5624,22 +5685,22 @@
         <v>0.81105040720861798</v>
       </c>
       <c r="AK88">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4489</v>
       </c>
       <c r="AL88">
         <v>67</v>
       </c>
       <c r="AM88">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AN88">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>67</v>
       </c>
       <c r="AO88">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4489</v>
       </c>
     </row>
@@ -5648,11 +5709,11 @@
         <v>39</v>
       </c>
       <c r="J89">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.3178984565893483E-2</v>
       </c>
       <c r="K89">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.4670347035350524</v>
       </c>
       <c r="M89">
@@ -5664,22 +5725,22 @@
         <v>0.78843475998737456</v>
       </c>
       <c r="AK89">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4624</v>
       </c>
       <c r="AL89">
         <v>68</v>
       </c>
       <c r="AM89">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AN89">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AO89">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -5688,11 +5749,11 @@
         <v>40</v>
       </c>
       <c r="J90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.7010222356249839E-2</v>
       </c>
       <c r="K90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.9488586779249863</v>
       </c>
       <c r="M90">
@@ -5704,22 +5765,22 @@
         <v>0.76644973633118962</v>
       </c>
       <c r="AK90">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4761</v>
       </c>
       <c r="AL90">
         <v>69</v>
       </c>
       <c r="AM90">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AN90">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>69</v>
       </c>
       <c r="AO90">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4761</v>
       </c>
     </row>
@@ -5728,11 +5789,11 @@
         <v>41</v>
       </c>
       <c r="J91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.0543450305292564E-2</v>
       </c>
       <c r="K91">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.4056498256445753</v>
       </c>
       <c r="M91">
@@ -5744,22 +5805,22 @@
         <v>0.74507775168557644</v>
       </c>
       <c r="AK91">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4900</v>
       </c>
       <c r="AL91">
         <v>70</v>
       </c>
       <c r="AM91">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AN91">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>70</v>
       </c>
       <c r="AO91">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4900</v>
       </c>
     </row>
@@ -5768,11 +5829,11 @@
         <v>42</v>
       </c>
       <c r="J92">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.413372387607487E-2</v>
       </c>
       <c r="K92">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.8672328055902891</v>
       </c>
       <c r="M92">
@@ -5784,22 +5845,22 @@
         <v>0.72430171183065306</v>
       </c>
       <c r="AK92">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5041</v>
       </c>
       <c r="AL92">
         <v>71</v>
       </c>
       <c r="AM92">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AN92">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AO92">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -5808,11 +5869,11 @@
         <v>43</v>
       </c>
       <c r="J93">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.8069034331581564E-2</v>
       </c>
       <c r="K93">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.3577988838528512</v>
       </c>
       <c r="M93">
@@ -5824,22 +5885,22 @@
         <v>0.7041049992084607</v>
       </c>
       <c r="AK93">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5184</v>
       </c>
       <c r="AL93">
         <v>72</v>
       </c>
       <c r="AM93">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AN93">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>72</v>
       </c>
       <c r="AO93">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5184</v>
       </c>
     </row>
@@ -5848,11 +5909,11 @@
         <v>44</v>
       </c>
       <c r="J94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.2557296681016456E-2</v>
       </c>
       <c r="K94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.8948129212053824</v>
       </c>
       <c r="M94">
@@ -5864,22 +5925,22 @@
         <v>0.68447145963153488</v>
       </c>
       <c r="AK94">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5329</v>
       </c>
       <c r="AL94">
         <v>73</v>
       </c>
       <c r="AM94">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="AN94">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>146</v>
       </c>
       <c r="AO94">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>10658</v>
       </c>
     </row>
@@ -5888,11 +5949,11 @@
         <v>45</v>
       </c>
       <c r="J95">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.7725022458683161E-2</v>
       </c>
       <c r="K95">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.4889018865293855</v>
       </c>
       <c r="M95">
@@ -5904,22 +5965,22 @@
         <v>0.66538538936210168</v>
       </c>
       <c r="AK95">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5476</v>
       </c>
       <c r="AL95">
         <v>74</v>
       </c>
       <c r="AM95">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AN95">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AO95">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -5928,11 +5989,11 @@
         <v>46</v>
       </c>
       <c r="J96">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.3625147698674707E-2</v>
       </c>
       <c r="K96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.1445124066886754</v>
       </c>
       <c r="M96">
@@ -5944,22 +6005,22 @@
         <v>0.64683152255156173</v>
       </c>
       <c r="AK96">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5625</v>
       </c>
       <c r="AL96">
         <v>75</v>
       </c>
       <c r="AM96">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AN96">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>75</v>
       </c>
       <c r="AO96">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5625</v>
       </c>
     </row>
@@ -5968,11 +6029,11 @@
         <v>47</v>
       </c>
       <c r="J97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0250749417556118E-2</v>
       </c>
       <c r="K97">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.86106295107471387</v>
       </c>
       <c r="M97">
@@ -5984,22 +6045,22 @@
         <v>0.62879501903021784</v>
       </c>
       <c r="AK97">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5776</v>
       </c>
       <c r="AL97">
         <v>76</v>
       </c>
       <c r="AM97">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AN97">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AO97">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -6008,11 +6069,11 @@
         <v>48</v>
       </c>
       <c r="J98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.5513854042663434E-3</v>
       </c>
       <c r="K98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.63431637395837281</v>
       </c>
       <c r="M98">
@@ -6024,22 +6085,22 @@
         <v>0.61126145243747654</v>
       </c>
       <c r="AK98">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5929</v>
       </c>
       <c r="AL98">
         <v>77</v>
       </c>
       <c r="AM98">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AN98">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AO98">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -6048,11 +6109,11 @@
         <v>49</v>
       </c>
       <c r="J99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.4493262835685237E-3</v>
       </c>
       <c r="K99">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.45774340781975598</v>
       </c>
       <c r="M99">
@@ -6064,22 +6125,22 @@
         <v>0.59421679868303368</v>
       </c>
       <c r="AK99">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6084</v>
       </c>
       <c r="AL99">
         <v>78</v>
       </c>
       <c r="AM99">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AN99">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AO99">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -6088,11 +6149,11 @@
         <v>50</v>
       </c>
       <c r="J100">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.8537635477396627E-3</v>
       </c>
       <c r="K100">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.32371613801013166</v>
       </c>
       <c r="M100">
@@ -6104,22 +6165,22 @@
         <v>0.57764742472981234</v>
       </c>
       <c r="AK100">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6241</v>
       </c>
       <c r="AL100">
         <v>79</v>
       </c>
       <c r="AM100">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AN100">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AO100">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -6128,11 +6189,11 @@
         <v>51</v>
       </c>
       <c r="J101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.6719427264328337E-3</v>
       </c>
       <c r="K101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.22444318902035804</v>
       </c>
       <c r="M101">
@@ -6144,22 +6205,22 @@
         <v>0.56154007768968106</v>
       </c>
       <c r="AK101">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6400</v>
       </c>
       <c r="AL101">
         <v>80</v>
       </c>
       <c r="AM101">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AN101">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AO101">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -6168,11 +6229,11 @@
         <v>52</v>
       </c>
       <c r="J102">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.8169210539743259E-3</v>
       </c>
       <c r="K102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.15262136853384337</v>
       </c>
       <c r="M102">
@@ -6189,11 +6250,11 @@
         <v>53</v>
       </c>
       <c r="J103">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.2121948767647587E-3</v>
       </c>
       <c r="K103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.10182436964823972</v>
       </c>
       <c r="M103">
@@ -6210,11 +6271,11 @@
         <v>54</v>
       </c>
       <c r="J104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.9376316374818272E-4</v>
       </c>
       <c r="K104">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.6676105754847351E-2</v>
       </c>
       <c r="M104">
@@ -6231,11 +6292,11 @@
         <v>55</v>
       </c>
       <c r="J105">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.1031755400246818E-4</v>
       </c>
       <c r="K105">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.2866674536207329E-2</v>
       </c>
       <c r="M105">
@@ -6252,11 +6313,11 @@
         <v>56</v>
       </c>
       <c r="J106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.222290840987012E-4</v>
       </c>
       <c r="K106">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.70672430642909E-2</v>
       </c>
       <c r="M106">
@@ -6273,11 +6334,11 @@
         <v>57</v>
       </c>
       <c r="J107">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.998950949777205E-4</v>
       </c>
       <c r="K107">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.6791187978128522E-2</v>
       </c>
       <c r="M107">
@@ -6294,11 +6355,11 @@
         <v>58</v>
       </c>
       <c r="J108">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.2186707859331375E-4</v>
       </c>
       <c r="K108">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0236834601838355E-2</v>
       </c>
       <c r="M108">
@@ -6315,11 +6376,11 @@
         <v>59</v>
       </c>
       <c r="J109">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.3037625407789398E-5</v>
       </c>
       <c r="K109">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.1351605342543098E-3</v>
       </c>
       <c r="M109">
@@ -6336,11 +6397,11 @@
         <v>60</v>
       </c>
       <c r="J110">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.3043507240323889E-5</v>
       </c>
       <c r="K110">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.6156546081872066E-3</v>
       </c>
       <c r="M110">
@@ -6357,11 +6418,11 @@
         <v>61</v>
       </c>
       <c r="J111">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.4951121574063166E-5</v>
       </c>
       <c r="K111">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.0958942122213061E-3</v>
       </c>
       <c r="M111">
@@ -6378,11 +6439,11 @@
         <v>62</v>
       </c>
       <c r="J112">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.4230188046110859E-5</v>
       </c>
       <c r="K112">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.1953357958733122E-3</v>
       </c>
       <c r="M112">
@@ -6399,11 +6460,11 @@
         <v>63</v>
       </c>
       <c r="J113">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.986975385880638E-6</v>
       </c>
       <c r="K113">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.7090593241397357E-4</v>
       </c>
       <c r="M113">
@@ -6420,11 +6481,11 @@
         <v>64</v>
       </c>
       <c r="J114">
-        <f t="shared" ref="J114:J145" si="27">(POWER(2.71828182845904,-1*$K$47)*POWER($K$47,I114))/(FACT(I114))</f>
+        <f t="shared" ref="J114:J130" si="28">(POWER(2.71828182845904,-1*$K$47)*POWER($K$47,I114))/(FACT(I114))</f>
         <v>4.4128039006990509E-6</v>
       </c>
       <c r="K114">
-        <f t="shared" ref="K114:K145" si="28">J114*84</f>
+        <f t="shared" ref="K114:K130" si="29">J114*84</f>
         <v>3.7067552765872026E-4</v>
       </c>
       <c r="M114">
@@ -6441,19 +6502,19 @@
         <v>65</v>
       </c>
       <c r="J115">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.4005653219802833E-6</v>
       </c>
       <c r="K115">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.016474870463438E-4</v>
       </c>
       <c r="M115">
-        <f t="shared" ref="M115:M130" si="29">(POWER($L$47,$N$47)*POWER(I115,$N$47-1)*POWER(2.71828182845904,-1*$L$47*I115)/FACT($N$47-1))</f>
+        <f t="shared" ref="M115:M130" si="30">(POWER($L$47,$N$47)*POWER(I115,$N$47-1)*POWER(2.71828182845904,-1*$L$47*I115)/FACT($N$47-1))</f>
         <v>4.4993761196858986E-3</v>
       </c>
       <c r="N115">
-        <f t="shared" ref="N115:N130" si="30">M115*84</f>
+        <f t="shared" ref="N115:N130" si="31">M115*84</f>
         <v>0.3779475940536155</v>
       </c>
     </row>
@@ -6462,19 +6523,19 @@
         <v>66</v>
       </c>
       <c r="J116">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.2861210573518606E-6</v>
       </c>
       <c r="K116">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.0803416881755629E-4</v>
       </c>
       <c r="M116">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.3739137536799241E-3</v>
       </c>
       <c r="N116">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.36740875530911365</v>
       </c>
     </row>
@@ -6483,19 +6544,19 @@
         <v>67</v>
       </c>
       <c r="J117">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6.7876478489495184E-7</v>
       </c>
       <c r="K117">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.7016241931175957E-5</v>
       </c>
       <c r="M117">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.2519498294278949E-3</v>
       </c>
       <c r="N117">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.35716378567194318</v>
       </c>
     </row>
@@ -6504,19 +6565,19 @@
         <v>68</v>
       </c>
       <c r="J118">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.5295768814537524E-7</v>
       </c>
       <c r="K118">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.9648445804211521E-5</v>
       </c>
       <c r="M118">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.1333867950096997E-3</v>
       </c>
       <c r="N118">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.34720449078081478</v>
       </c>
     </row>
@@ -6525,19 +6586,19 @@
         <v>69</v>
       </c>
       <c r="J119">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.8087802685247058E-7</v>
       </c>
       <c r="K119">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.5193754255607529E-5</v>
       </c>
       <c r="M119">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4.0181298186811754E-3</v>
       </c>
       <c r="N119">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.33752290476921876</v>
       </c>
     </row>
@@ -6546,19 +6607,19 @@
         <v>70</v>
       </c>
       <c r="J120">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.1369243278619428E-8</v>
       </c>
       <c r="K120">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.6750164354040328E-6</v>
       </c>
       <c r="M120">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.906086713023654E-3</v>
       </c>
       <c r="N120">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.32811128389398692</v>
       </c>
     </row>
@@ -6567,19 +6628,19 @@
         <v>71</v>
       </c>
       <c r="J121">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.5504456934253275E-8</v>
       </c>
       <c r="K121">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.8223743824772748E-6</v>
       </c>
       <c r="M121">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.7971678612085599E-3</v>
       </c>
       <c r="N121">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.31896210034151906</v>
       </c>
     </row>
@@ -6588,19 +6649,19 @@
         <v>72</v>
       </c>
       <c r="J122">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.2347744405488817E-8</v>
       </c>
       <c r="K122">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.8772105300610606E-6</v>
       </c>
       <c r="M122">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.6912861453180621E-3</v>
       </c>
       <c r="N122">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.31006803620671719</v>
       </c>
     </row>
@@ -6609,19 +6670,19 @@
         <v>73</v>
       </c>
       <c r="J123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.0824880029836776E-8</v>
       </c>
       <c r="K123">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>9.0928992250628916E-7</v>
       </c>
       <c r="M123">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.5883568766644754E-3</v>
       </c>
       <c r="N123">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.30142197763981593</v>
       </c>
     </row>
@@ -6630,19 +6691,19 @@
         <v>74</v>
       </c>
       <c r="J124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.1725372683111963E-9</v>
       </c>
       <c r="K124">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.3449313053814046E-7</v>
       </c>
       <c r="M124">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.4882977280526533E-3</v>
       </c>
       <c r="N124">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.29301700915642287</v>
       </c>
     </row>
@@ -6651,19 +6712,19 @@
         <v>75</v>
       </c>
       <c r="J125">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.4386789040997848E-9</v>
       </c>
       <c r="K125">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.0484902794438192E-7</v>
       </c>
       <c r="M125">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.391028667931202E-3</v>
       </c>
       <c r="N125">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.28484640810622097</v>
       </c>
     </row>
@@ -6672,19 +6733,19 @@
         <v>76</v>
       </c>
       <c r="J126">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.1346274480127421E-9</v>
       </c>
       <c r="K126">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>9.5308705633070332E-8</v>
       </c>
       <c r="M126">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.2964718963798532E-3</v>
       </c>
       <c r="N126">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.27690363929590767</v>
       </c>
     </row>
@@ -6693,19 +6754,19 @@
         <v>77</v>
       </c>
       <c r="J127">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.2104450080169557E-10</v>
       </c>
       <c r="K127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.3767738067342429E-8</v>
       </c>
       <c r="M127">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.2045517828817871E-3</v>
       </c>
       <c r="N127">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.26918234976207012</v>
       </c>
     </row>
@@ -6714,19 +6775,19 @@
         <v>78</v>
       </c>
       <c r="J128">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2.3620684036343549E-10</v>
       </c>
       <c r="K128">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.9841374590528583E-8</v>
       </c>
       <c r="M128">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.1151948058311361E-3</v>
       </c>
       <c r="N128">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.26167636368981545</v>
       </c>
     </row>
@@ -6735,19 +6796,19 @@
         <v>79</v>
       </c>
       <c r="J129">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.0572498576267181E-10</v>
       </c>
       <c r="K129">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.8808988040644324E-9</v>
       </c>
       <c r="M129">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.0283294937272927E-3</v>
       </c>
       <c r="N129">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.25437967747309259</v>
       </c>
     </row>
@@ -6756,19 +6817,19 @@
         <v>80</v>
       </c>
       <c r="J130">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.6730443707100962E-11</v>
       </c>
       <c r="K130">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.9253572713964809E-9</v>
       </c>
       <c r="M130">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2.9438863680089616E-3</v>
       </c>
       <c r="N130">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.24728645491275278</v>
       </c>
     </row>
